--- a/schedules/Pneumo65.xlsx
+++ b/schedules/Pneumo65.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -129,9 +129,6 @@
     <t>6 months</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>0 days</t>
   </si>
   <si>
@@ -202,6 +199,15 @@
   </si>
   <si>
     <t>Age 19 Years</t>
+  </si>
+  <si>
+    <t>Completes</t>
+  </si>
+  <si>
+    <t>PCV,PPSV</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -425,6 +431,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -433,15 +457,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -459,9 +474,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,15 +497,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>691732</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>26864</xdr:rowOff>
+      <xdr:colOff>358357</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>141164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -516,7 +528,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723900" y="2171700"/>
+          <a:off x="390525" y="3257550"/>
           <a:ext cx="6435307" cy="5732339"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -879,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -909,24 +921,24 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="27"/>
       <c r="G3" s="7" t="s">
         <v>3</v>
       </c>
@@ -940,13 +952,13 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="10">
-        <v>3143</v>
-      </c>
-      <c r="D4" s="11"/>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8"/>
       <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
@@ -959,10 +971,10 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10">
-        <v>155</v>
+        <v>3143</v>
       </c>
       <c r="D5" s="11"/>
       <c r="G5" s="10" t="s">
@@ -976,6 +988,13 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="10">
+        <v>155</v>
+      </c>
+      <c r="D6" s="11"/>
       <c r="G6" s="10" t="s">
         <v>9</v>
       </c>
@@ -998,21 +1017,21 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="B10" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -1035,7 +1054,7 @@
         <v>12</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F59" s="14"/>
     </row>
@@ -1047,17 +1066,17 @@
         <v>1</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F60" s="14"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
       <c r="F61" s="14"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
@@ -1078,11 +1097,11 @@
         <v>18</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" s="14"/>
     </row>
@@ -1100,7 +1119,7 @@
         <v>21</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -1111,7 +1130,7 @@
         <v>22</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -1122,7 +1141,7 @@
         <v>23</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -1134,7 +1153,7 @@
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="14"/>
@@ -1150,21 +1169,21 @@
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
       <c r="F71" s="14"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
@@ -1191,53 +1210,53 @@
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="D73" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E73" s="9"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="28"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="34"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="34"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="37"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="34"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="37"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="17" t="s">
@@ -1247,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
@@ -1267,24 +1286,24 @@
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C80" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="16"/>
@@ -1303,7 +1322,7 @@
         <v>18</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
@@ -1334,7 +1353,7 @@
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E86" s="9"/>
     </row>
@@ -1343,7 +1362,7 @@
         <v>23</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
@@ -1366,65 +1385,59 @@
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B91" s="38" t="s">
+      <c r="B91" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B92" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B92" s="6" t="s">
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B93" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D93" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F92" s="29" t="s">
+      <c r="F93" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="30"/>
-      <c r="K92" s="31"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B93" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="28"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="31"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="9" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -1436,18 +1449,34 @@
       <c r="K94" s="34"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B95" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C95" s="9">
-        <v>2</v>
-      </c>
+      <c r="B95" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="37"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B97" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C97" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1460,24 +1489,24 @@
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C99" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B100" s="38" t="s">
+      <c r="B100" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="38"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="16"/>
@@ -1491,7 +1520,7 @@
         <v>17</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.2">
@@ -1499,13 +1528,13 @@
         <v>18</v>
       </c>
       <c r="C102" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E102" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="F102" s="9" t="s">
         <v>19</v>
@@ -1524,7 +1553,7 @@
         <v>21</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -1534,7 +1563,7 @@
         <v>22</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -1544,7 +1573,7 @@
         <v>23</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -1567,20 +1596,20 @@
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B109" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B110" s="38" t="s">
+      <c r="B110" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B111" s="6" t="s">
@@ -1606,28 +1635,28 @@
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B112" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C112" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="D112" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E112" s="9"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="28"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="33"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="34"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -1639,20 +1668,20 @@
       <c r="K113" s="25"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B114" s="22" t="s">
+      <c r="B114" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="22" t="s">
         <v>48</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>49</v>
       </c>
       <c r="D114" s="22"/>
       <c r="E114" s="22"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="36"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="37"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="39"/>
+      <c r="H114" s="39"/>
+      <c r="I114" s="39"/>
+      <c r="J114" s="39"/>
+      <c r="K114" s="40"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="17" t="s">
@@ -1679,24 +1708,24 @@
       </c>
       <c r="D118" s="14"/>
       <c r="E118" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="C119" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B120" s="38" t="s">
+      <c r="B120" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C120" s="38"/>
-      <c r="D120" s="38"/>
-      <c r="E120" s="38"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B121" s="16"/>
@@ -1710,7 +1739,7 @@
         <v>17</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.2">
@@ -1718,13 +1747,13 @@
         <v>18</v>
       </c>
       <c r="C122" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E122" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="F122" s="9" t="s">
         <v>19</v>
@@ -1743,7 +1772,7 @@
         <v>21</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
@@ -1753,7 +1782,7 @@
         <v>22</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -1763,7 +1792,7 @@
         <v>23</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
@@ -1786,20 +1815,20 @@
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B129" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B130" s="38" t="s">
+      <c r="B130" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C130" s="38"/>
-      <c r="D130" s="38"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B131" s="6" t="s">
@@ -1825,35 +1854,35 @@
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B132" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="27"/>
-      <c r="K132" s="28"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="33"/>
+      <c r="I132" s="33"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="34"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B133" s="9" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="27"/>
-      <c r="K133" s="28"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="33"/>
+      <c r="I133" s="33"/>
+      <c r="J133" s="33"/>
+      <c r="K133" s="34"/>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B134" s="17" t="s">
@@ -1874,29 +1903,29 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="23">
-    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="F93:K93"/>
+    <mergeCell ref="F94:K94"/>
+    <mergeCell ref="F111:K111"/>
+    <mergeCell ref="F112:K112"/>
+    <mergeCell ref="F131:K131"/>
+    <mergeCell ref="F95:K95"/>
+    <mergeCell ref="F114:K114"/>
     <mergeCell ref="F133:K133"/>
     <mergeCell ref="B120:E120"/>
     <mergeCell ref="B110:D110"/>
     <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="F132:K132"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="B81:E81"/>
     <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B92:D92"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F72:K72"/>
     <mergeCell ref="F73:K73"/>
     <mergeCell ref="F75:K75"/>
-    <mergeCell ref="F92:K92"/>
-    <mergeCell ref="F93:K93"/>
-    <mergeCell ref="F111:K111"/>
-    <mergeCell ref="F112:K112"/>
-    <mergeCell ref="F131:K131"/>
-    <mergeCell ref="F132:K132"/>
-    <mergeCell ref="F94:K94"/>
-    <mergeCell ref="F114:K114"/>
+    <mergeCell ref="F74:K74"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1916,13 +1945,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A59"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="A59" sqref="A1:A59"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="1">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1933,8 +1962,8 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="str">
-        <f>"&lt;forecast seriesName="&amp;CHAR(34)&amp;Schedules!D2&amp;CHAR(34)&amp;"&gt;"</f>
-        <v>&lt;forecast seriesName="Pneumo65"&gt;</v>
+        <f>"&lt;forecast seriesName="&amp;CHAR(34)&amp;Schedules!D2&amp;CHAR(34)&amp;" completes="&amp;CHAR(34)&amp;Schedules!C3&amp;CHAR(34)&amp;"&gt;"</f>
+        <v>&lt;forecast seriesName="Pneumo65" completes="PCV,PPSV"&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1945,13 +1974,13 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="str">
-        <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B4&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C4&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="PCV-13" vaccineIds="3143"/&gt;</v>
+        <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B5&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C5&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="PCV13" vaccineIds="3143"/&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="str">
-        <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B5&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C5&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B6&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C6&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">  &lt;vaccine vaccineName="PPSV" vaccineIds="155"/&gt;</v>
       </c>
     </row>
@@ -2012,7 +2041,7 @@
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C70&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;recommend seriesName="PCV-13"/&gt;</v>
+        <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -2030,7 +2059,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B75&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C75&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D75&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F75&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E75&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PCV-13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -2042,12 +2071,12 @@
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B80&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C80&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D80&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E79&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="S1" dose="2" indication="" label="PPSV"&gt;</v>
+        <v xml:space="preserve">  &lt;schedule scheduleName="S1" dose="1" indication="" label="PPSV"&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C96&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C95&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C97&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C96&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="2"/&gt;</v>
       </c>
     </row>
@@ -2100,187 +2129,193 @@
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B93&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C93&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D93&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F93&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E93&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PCV-13" schedule="INVALID" age="" reason="" historyOfVaccineName=""/&gt;</v>
+      <c r="A29" s="20" t="str">
+        <f>"    &lt;completed seriesName="&amp;CHAR(34)&amp;Schedules!C91&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;completed seriesName="PCV13"/&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B94&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C94&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D94&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F94&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E94&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="INVALID" age="" reason="" historyOfVaccineName=""/&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B95&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C95&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D95&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F95&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E95&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="str">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B99&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C99&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D99&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E98&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="C1" dose="3" indication="" label="PCV-13 after PPSV"&gt;</v>
-      </c>
-    </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="str">
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B99&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C99&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D99&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E98&amp;CHAR(34)&amp;"&gt;"</f>
+        <v xml:space="preserve">  &lt;schedule scheduleName="C1" dose="1" indication="" label="PCV-13 after PPSV"&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C116&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C115&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="2" column="1"/&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="str">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C102&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D102&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E102&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F102&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="4 days"/&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="str">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C103&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D103&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E103&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="str">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C104&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D104&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E104&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="str">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C105&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D105&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E105&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="str">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C106&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D106&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E106&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="str">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D107&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E107&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="str">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D108&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="str">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C109&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;recommend seriesName="PCV-13"/&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="str">
+        <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B112&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C112&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D112&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F112&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E112&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="str">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B113&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C113&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D113&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F113&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E113&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="str">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B114&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C114&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D114&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F114&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E114&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PCV-13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="str">
+        <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B119&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C119&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D119&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E118&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="C2" dose="B" indication="" label="PCV-13 after PPSVs"&gt;</v>
-      </c>
-    </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="str">
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B119&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C119&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D119&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E118&amp;CHAR(34)&amp;"&gt;"</f>
+        <v xml:space="preserve">  &lt;schedule scheduleName="C2" dose="1" indication="" label="PCV-13 after PPSVs"&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C135&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C134&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="2" column="2"/&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="str">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C122&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D122&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E122&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F122&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="4 days"/&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="str">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C123&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D123&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E123&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="str">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C124&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D124&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E124&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="str">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C125&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D125&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E125&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="str">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C126&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D126&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E126&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="str">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D127&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E127&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="20" t="str">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D128&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="str">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C129&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;recommend seriesName="PCV-13"/&gt;</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="str">
+        <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B132&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C132&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D132&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F132&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E132&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="21" t="str">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B133&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C133&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D133&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F133&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E133&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PCV-13" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="str">
+        <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="str">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="19" t="str">
         <f>"&lt;/forecast&gt;"</f>
         <v>&lt;/forecast&gt;</v>
       </c>

--- a/schedules/Pneumo65.xlsx
+++ b/schedules/Pneumo65.xlsx
@@ -9,23 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="389"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Schedules" sheetId="1" r:id="rId1"/>
     <sheet name="XML" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Excel_BuiltIn_Print_Area_1_1">Schedules!$A$1:$L$136</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Schedules!$A$1:$L$136</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1">Schedules!$A$1:$L$140</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Schedules!$A$1:$L$140</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="66">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -208,6 +207,21 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>8 weeks</t>
+  </si>
+  <si>
+    <t>1 y -8 w -4 d</t>
+  </si>
+  <si>
+    <t>In case of contraindicated dose</t>
+  </si>
+  <si>
+    <t>Interval After</t>
+  </si>
+  <si>
+    <t>5 years</t>
   </si>
 </sst>
 </file>
@@ -248,7 +262,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +303,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
   </fills>
@@ -369,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -435,6 +455,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,19 +520,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>358357</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>141164</xdr:rowOff>
+      <xdr:colOff>910807</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>131639</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -528,7 +551,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="390525" y="3257550"/>
+          <a:off x="942975" y="3086100"/>
           <a:ext cx="6435307" cy="5732339"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -889,12 +912,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K135"/>
+  <dimension ref="B1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -923,13 +945,13 @@
       <c r="D2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -1017,11 +1039,11 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
@@ -1071,12 +1093,12 @@
       <c r="F60" s="14"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
       <c r="F61" s="14"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
@@ -1179,11 +1201,11 @@
       <c r="F70" s="14"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
       <c r="F71" s="14"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
@@ -1199,14 +1221,14 @@
       <c r="E72" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F72" s="29" t="s">
+      <c r="F72" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="32"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="9" t="s">
@@ -1219,28 +1241,28 @@
         <v>55</v>
       </c>
       <c r="E73" s="9"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="34"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="35"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="37"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="38"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="9" t="s">
@@ -1251,12 +1273,12 @@
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="37"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="38"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="17" t="s">
@@ -1298,12 +1320,12 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="16"/>
@@ -1324,7 +1346,9 @@
       <c r="C83" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="9"/>
+      <c r="D83" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="E83" s="9" t="s">
         <v>19</v>
       </c>
@@ -1351,7 +1375,9 @@
       <c r="B86" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="9"/>
+      <c r="C86" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="D86" s="9" t="s">
         <v>51</v>
       </c>
@@ -1404,523 +1430,559 @@
       <c r="E91" s="14"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B92" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
+      <c r="B92" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F93" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="31"/>
+      <c r="F93" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="9" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="34"/>
+      <c r="F94" s="9"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B96" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
+      <c r="K96" s="32"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B97" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="35"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B98" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C98" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="37"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B96" s="17" t="s">
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="38"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B99" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C99" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B97" s="17" t="s">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B100" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C100" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B98" s="5" t="s">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B102" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C102" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14" t="s">
+      <c r="D102" s="14"/>
+      <c r="E102" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B99" s="15" t="s">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B103" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="15">
+      <c r="C103" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B100" s="28" t="s">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B104" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B101" s="16"/>
-      <c r="C101" s="6" t="s">
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B105" s="16"/>
+      <c r="C105" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D105" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E105" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F105" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B102" s="17" t="s">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B106" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C106" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D106" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E106" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F102" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B103" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B104" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B105" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-    </row>
-    <row r="106" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
+      <c r="F106" s="28" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B107" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C107" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C108" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B109" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+    </row>
+    <row r="110" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B111" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="18"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B112" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" s="18"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B113" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C113" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B110" s="28" t="s">
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B114" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B111" s="6" t="s">
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B115" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C115" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D115" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E115" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F111" s="29" t="s">
+      <c r="F115" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G111" s="30"/>
-      <c r="H111" s="30"/>
-      <c r="I111" s="30"/>
-      <c r="J111" s="30"/>
-      <c r="K111" s="31"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B112" s="9" t="s">
+      <c r="G115" s="31"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31"/>
+      <c r="J115" s="31"/>
+      <c r="K115" s="32"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B116" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C116" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D116" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33"/>
-      <c r="I112" s="33"/>
-      <c r="J112" s="33"/>
-      <c r="K112" s="34"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B113" s="9" t="s">
+      <c r="E116" s="9"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
+      <c r="J116" s="34"/>
+      <c r="K116" s="35"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B117" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C117" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24"/>
-      <c r="K113" s="25"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B114" s="9" t="s">
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="25"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B118" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C118" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="38"/>
-      <c r="G114" s="39"/>
-      <c r="H114" s="39"/>
-      <c r="I114" s="39"/>
-      <c r="J114" s="39"/>
-      <c r="K114" s="40"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B115" s="17" t="s">
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="40"/>
+      <c r="I118" s="40"/>
+      <c r="J118" s="40"/>
+      <c r="K118" s="41"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B119" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C119" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B116" s="17" t="s">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B120" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C120" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B118" s="5" t="s">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B122" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C122" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14" t="s">
+      <c r="D122" s="14"/>
+      <c r="E122" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B119" s="15" t="s">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B123" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C119" s="15">
+      <c r="C123" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B120" s="28" t="s">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B124" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B121" s="16"/>
-      <c r="C121" s="6" t="s">
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B125" s="16"/>
+      <c r="C125" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D125" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E125" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="6" t="s">
+      <c r="F125" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B122" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B123" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B124" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B125" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B126" s="17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F126" s="28" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B127" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B128" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C128" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B129" s="17" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B130" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
+      <c r="B130" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B131" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F131" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G131" s="30"/>
-      <c r="H131" s="30"/>
-      <c r="I131" s="30"/>
-      <c r="J131" s="30"/>
-      <c r="K131" s="31"/>
+      <c r="B131" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" s="18"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B132" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="B132" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" s="18"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="32"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33"/>
-      <c r="I132" s="33"/>
-      <c r="J132" s="33"/>
-      <c r="K132" s="34"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C133" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B134" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B135" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G135" s="31"/>
+      <c r="H135" s="31"/>
+      <c r="I135" s="31"/>
+      <c r="J135" s="31"/>
+      <c r="K135" s="32"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B136" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="34"/>
+      <c r="I136" s="34"/>
+      <c r="J136" s="34"/>
+      <c r="K136" s="35"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B137" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="32"/>
-      <c r="G133" s="33"/>
-      <c r="H133" s="33"/>
-      <c r="I133" s="33"/>
-      <c r="J133" s="33"/>
-      <c r="K133" s="34"/>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B134" s="17" t="s">
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="34"/>
+      <c r="J137" s="34"/>
+      <c r="K137" s="35"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B138" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="9">
+      <c r="C138" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B135" s="17" t="s">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B139" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C135" s="9">
+      <c r="C139" s="9">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="23">
-    <mergeCell ref="F93:K93"/>
-    <mergeCell ref="F94:K94"/>
-    <mergeCell ref="F111:K111"/>
-    <mergeCell ref="F112:K112"/>
-    <mergeCell ref="F131:K131"/>
-    <mergeCell ref="F95:K95"/>
-    <mergeCell ref="F114:K114"/>
-    <mergeCell ref="F133:K133"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="F132:K132"/>
+  <mergeCells count="24">
+    <mergeCell ref="F96:K96"/>
+    <mergeCell ref="F97:K97"/>
+    <mergeCell ref="F115:K115"/>
+    <mergeCell ref="F116:K116"/>
+    <mergeCell ref="F135:K135"/>
+    <mergeCell ref="F98:K98"/>
+    <mergeCell ref="F118:K118"/>
+    <mergeCell ref="F137:K137"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="F136:K136"/>
+    <mergeCell ref="B92:D92"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="B81:E81"/>
     <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B95:D95"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F72:K72"/>
     <mergeCell ref="F73:K73"/>
@@ -1934,10 +1996,11 @@
     <oddHeader>&amp;C&amp;F</oddHeader>
     <oddFooter>&amp;CPrepared by  Nathan Bunker &amp;D&amp;RPage &amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="3" manualBreakCount="3">
+  <rowBreaks count="4" manualBreakCount="4">
     <brk id="18" max="11" man="1"/>
     <brk id="57" max="16383" man="1"/>
-    <brk id="97" max="11" man="1"/>
+    <brk id="78" max="11" man="1"/>
+    <brk id="101" max="11" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -1945,13 +2008,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="1">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2053,7 +2113,7 @@
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B74&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C74&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D74&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F74&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E74&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="" reason="" historyOfVaccineName=""/&gt;</v>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -2076,14 +2136,14 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C97&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C96&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C100&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C99&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="2"/&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C83&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D83&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E83&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F83&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="65 years" interval="" grace="4 days" intervalGrace=""/&gt;</v>
+        <v xml:space="preserve">    &lt;valid age="65 years" interval="8 weeks" grace="4 days" intervalGrace=""/&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -2101,7 +2161,7 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C86&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D86&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E86&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="" interval="13 months" grace=""/&gt;</v>
+        <v xml:space="preserve">    &lt;overdue age="66 years" interval="13 months" grace=""/&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
@@ -2135,187 +2195,193 @@
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B94&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C94&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D94&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F94&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E94&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="INVALID" age="" reason="" historyOfVaccineName=""/&gt;</v>
+      <c r="A30" s="20" t="str">
+        <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B94&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C94&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D94&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E94&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F94&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;contraindicate vaccineName="PPSV" afterInterval="5 years" age="" reason="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B95&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C95&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D95&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F95&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E95&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B97&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C97&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D97&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F97&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E97&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="INVALID" age="" reason="" historyOfVaccineName=""/&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B98&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C98&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D98&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F98&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E98&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="str">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B99&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C99&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D99&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E98&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="C1" dose="1" indication="" label="PCV-13 after PPSV"&gt;</v>
-      </c>
-    </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C116&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C115&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;pos row="2" column="1"/&gt;</v>
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B103&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C103&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D103&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E102&amp;CHAR(34)&amp;"&gt;"</f>
+        <v xml:space="preserve">  &lt;schedule scheduleName="C1" dose="1" indication="" label="PCV-13 after PPSV"&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C102&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D102&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E102&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F102&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="4 days"/&gt;</v>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C120&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C119&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;pos row="2" column="1"/&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C103&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D103&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E103&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C106&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D106&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E106&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F106&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 y -8 w -4 d"/&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C104&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D104&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E104&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C107&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D107&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E107&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C105&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D105&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E105&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C108&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D108&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E108&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C106&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D106&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E106&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C109&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D109&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E109&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D107&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E107&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C110&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D110&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E110&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D108&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D111&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E111&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="str">
-        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C109&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D112&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="str">
+        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C113&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B112&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C112&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D112&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F112&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E112&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B113&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C113&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D113&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F113&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E113&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B116&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C116&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D116&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F116&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E116&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B114&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C114&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D114&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F114&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E114&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B117&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C117&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D117&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F117&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E117&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B118&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C118&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D118&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F118&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E118&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="str">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B119&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C119&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D119&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E118&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="C2" dose="1" indication="" label="PCV-13 after PPSVs"&gt;</v>
-      </c>
-    </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C135&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C134&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;pos row="2" column="2"/&gt;</v>
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B123&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C123&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D123&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E122&amp;CHAR(34)&amp;"&gt;"</f>
+        <v xml:space="preserve">  &lt;schedule scheduleName="C2" dose="1" indication="" label="PCV-13 after PPSVs"&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C122&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D122&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E122&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F122&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="4 days"/&gt;</v>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C139&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C138&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;pos row="2" column="2"/&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C123&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D123&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E123&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C126&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D126&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E126&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F126&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 y -8 w -4 d"/&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C124&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D124&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E124&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C127&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D127&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E127&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C125&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D125&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E125&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C128&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D128&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E128&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C126&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D126&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E126&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C129&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D129&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E129&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D127&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E127&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C130&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D130&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E130&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D128&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D131&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E131&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="str">
-        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C129&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D132&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20" t="str">
+        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C133&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B132&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C132&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D132&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F132&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E132&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B133&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C133&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D133&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F133&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E133&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B136&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C136&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D136&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F136&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E136&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B137&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C137&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D137&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F137&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E137&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="str">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="str">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="19" t="str">
         <f>"&lt;/forecast&gt;"</f>
         <v>&lt;/forecast&gt;</v>
       </c>

--- a/schedules/Pneumo65.xlsx
+++ b/schedules/Pneumo65.xlsx
@@ -16,15 +16,15 @@
     <sheet name="XML" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Excel_BuiltIn_Print_Area_1_1">Schedules!$A$1:$L$140</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Schedules!$A$1:$L$140</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1">Schedules!$A$1:$L$152</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Schedules!$A$1:$L$152</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="78">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -212,9 +212,6 @@
     <t>8 weeks</t>
   </si>
   <si>
-    <t>1 y -8 w -4 d</t>
-  </si>
-  <si>
     <t>In case of contraindicated dose</t>
   </si>
   <si>
@@ -222,6 +219,45 @@
   </si>
   <si>
     <t>5 years</t>
+  </si>
+  <si>
+    <t>65 years -4 d</t>
+  </si>
+  <si>
+    <t>One dose of PPSV required after 65 years of age.</t>
+  </si>
+  <si>
+    <t>4 weeks</t>
+  </si>
+  <si>
+    <t>Menactra</t>
+  </si>
+  <si>
+    <t>MCV4</t>
+  </si>
+  <si>
+    <t>Meningococcal, NOS</t>
+  </si>
+  <si>
+    <t>183, 184</t>
+  </si>
+  <si>
+    <t>Against</t>
+  </si>
+  <si>
+    <t>4 weeks 4 days</t>
+  </si>
+  <si>
+    <t>1 y -4 w 4 d</t>
+  </si>
+  <si>
+    <t>Invalid Same Day Combinations</t>
+  </si>
+  <si>
+    <t>Invalidated</t>
+  </si>
+  <si>
+    <t>If given same day as</t>
   </si>
 </sst>
 </file>
@@ -307,7 +343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="26"/>
       </patternFill>
     </fill>
@@ -389,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -456,47 +492,59 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,55 +561,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>910807</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>131639</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="942975" y="3086100"/>
-          <a:ext cx="6435307" cy="5732339"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -912,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K139"/>
+  <dimension ref="B1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -945,13 +944,13 @@
       <c r="D2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -1028,6 +1027,13 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="31"/>
       <c r="G7" s="10" t="s">
         <v>7</v>
       </c>
@@ -1038,12 +1044,36 @@
         <v>3143</v>
       </c>
     </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G8" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="31"/>
+      <c r="K8" s="9">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G9" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="9">
+        <v>184</v>
+      </c>
+    </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
@@ -1061,6 +1091,40 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="31"/>
+    </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
@@ -1093,12 +1157,12 @@
       <c r="F60" s="14"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
       <c r="F61" s="14"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
@@ -1201,793 +1265,964 @@
       <c r="F70" s="14"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="F71" s="14"/>
+      <c r="B71" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="32"/>
+      <c r="F72" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B74" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="F74" s="14"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="35"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B76" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D76" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="35"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="9" t="s">
+      <c r="E76" s="9"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="38"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B77" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="38"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="9" t="s">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="41"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B78" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C78" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="38"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="17" t="s">
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="41"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B79" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C79" s="9">
         <v>1</v>
       </c>
-      <c r="F76" s="14" t="s">
+      <c r="F79" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="17" t="s">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B80" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C80" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="5" t="s">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14" t="s">
+      <c r="D82" s="14"/>
+      <c r="E82" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B80" s="15" t="s">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C83" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B81" s="29" t="s">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B82" s="16"/>
-      <c r="C82" s="6" t="s">
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B85" s="16"/>
+      <c r="C85" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D85" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B83" s="17" t="s">
+      <c r="F85" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B86" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C86" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D86" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E86" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B84" s="17" t="s">
+      <c r="F86" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B87" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B85" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E85" s="9"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B86" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E86" s="9"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B87" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="9"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B89" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E89" s="9"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B90" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B91" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B89" s="17" t="s">
+      <c r="C91" s="18"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="18"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B90" s="17" t="s">
+      <c r="C92" s="18"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B93" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C93" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B91" s="17" t="s">
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B94" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C94" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B92" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B93" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B94" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B95" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B95" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F96" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="31"/>
-      <c r="K96" s="32"/>
+      <c r="F96" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="9" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="35"/>
+      <c r="F97" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="9" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="37"/>
-      <c r="K98" s="38"/>
+      <c r="F98" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34"/>
+      <c r="K100" s="35"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B101" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="38"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B102" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="F102" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="29"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B103" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="40"/>
+      <c r="K103" s="41"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B104" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C104" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B100" s="17" t="s">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B105" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C105" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B102" s="5" t="s">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B107" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C107" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14" t="s">
+      <c r="D107" s="14"/>
+      <c r="E107" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B103" s="15" t="s">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B108" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C103" s="15">
+      <c r="C108" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B104" s="29" t="s">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B109" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B105" s="16"/>
-      <c r="C105" s="6" t="s">
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B110" s="16"/>
+      <c r="C110" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D110" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E110" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F110" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B106" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F106" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B107" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B108" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B109" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-    </row>
-    <row r="110" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B111" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C111" s="18"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F111" s="45" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B112" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C112" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="17" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B114" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C114" s="29"/>
-      <c r="D114" s="29"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B115" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F115" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G115" s="31"/>
-      <c r="H115" s="31"/>
-      <c r="I115" s="31"/>
-      <c r="J115" s="31"/>
-      <c r="K115" s="32"/>
+      <c r="B114" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+    </row>
+    <row r="115" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B116" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="B116" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" s="18"/>
+      <c r="D116" s="9"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="34"/>
-      <c r="H116" s="34"/>
-      <c r="I116" s="34"/>
-      <c r="J116" s="34"/>
-      <c r="K116" s="35"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B117" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="B117" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" s="18"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="24"/>
-      <c r="K117" s="25"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C118" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C118" s="22" t="s">
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B119" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B120" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B121" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B122" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B123" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G123" s="34"/>
+      <c r="H123" s="34"/>
+      <c r="I123" s="34"/>
+      <c r="J123" s="34"/>
+      <c r="K123" s="35"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B124" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="37"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="37"/>
+      <c r="K124" s="38"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B125" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="25"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B126" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="40"/>
-      <c r="H118" s="40"/>
-      <c r="I118" s="40"/>
-      <c r="J118" s="40"/>
-      <c r="K118" s="41"/>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B119" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C119" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B120" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C120" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B122" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B123" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C123" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B124" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B125" s="16"/>
-      <c r="C125" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B126" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F126" s="28" t="s">
-        <v>62</v>
-      </c>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="42"/>
+      <c r="G126" s="43"/>
+      <c r="H126" s="43"/>
+      <c r="I126" s="43"/>
+      <c r="J126" s="43"/>
+      <c r="K126" s="44"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B127" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="C127" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B128" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B130" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B131" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B132" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B133" s="16"/>
+      <c r="C133" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B134" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F134" s="45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B135" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B136" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C136" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B129" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B130" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B131" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C131" s="18"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B132" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C132" s="18"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B133" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B134" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B135" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F135" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G135" s="31"/>
-      <c r="H135" s="31"/>
-      <c r="I135" s="31"/>
-      <c r="J135" s="31"/>
-      <c r="K135" s="32"/>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B136" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="34"/>
-      <c r="H136" s="34"/>
-      <c r="I136" s="34"/>
-      <c r="J136" s="34"/>
-      <c r="K136" s="35"/>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B137" s="9" t="s">
-        <v>7</v>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B137" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="34"/>
-      <c r="I137" s="34"/>
-      <c r="J137" s="34"/>
-      <c r="K137" s="35"/>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B139" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" s="18"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B140" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" s="18"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B141" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B142" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B143" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B144" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B145" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B146" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B147" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F147" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G147" s="34"/>
+      <c r="H147" s="34"/>
+      <c r="I147" s="34"/>
+      <c r="J147" s="34"/>
+      <c r="K147" s="35"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B148" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="36"/>
+      <c r="G148" s="37"/>
+      <c r="H148" s="37"/>
+      <c r="I148" s="37"/>
+      <c r="J148" s="37"/>
+      <c r="K148" s="38"/>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B149" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="36"/>
+      <c r="G149" s="37"/>
+      <c r="H149" s="37"/>
+      <c r="I149" s="37"/>
+      <c r="J149" s="37"/>
+      <c r="K149" s="38"/>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B150" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C138" s="9">
+      <c r="C150" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B139" s="17" t="s">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B151" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C139" s="9">
+      <c r="C151" s="9">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="24">
-    <mergeCell ref="F96:K96"/>
-    <mergeCell ref="F97:K97"/>
-    <mergeCell ref="F115:K115"/>
-    <mergeCell ref="F116:K116"/>
-    <mergeCell ref="F135:K135"/>
-    <mergeCell ref="F98:K98"/>
-    <mergeCell ref="F118:K118"/>
-    <mergeCell ref="F137:K137"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="F136:K136"/>
-    <mergeCell ref="B92:D92"/>
+  <mergeCells count="29">
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="F149:K149"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="F148:K148"/>
+    <mergeCell ref="F100:K100"/>
+    <mergeCell ref="F101:K101"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F147:K147"/>
+    <mergeCell ref="F103:K103"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="F76:K76"/>
+    <mergeCell ref="F78:K78"/>
+    <mergeCell ref="F77:K77"/>
     <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F72:K72"/>
-    <mergeCell ref="F73:K73"/>
-    <mergeCell ref="F75:K75"/>
-    <mergeCell ref="F74:K74"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1999,19 +2234,18 @@
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="18" max="11" man="1"/>
     <brk id="57" max="16383" man="1"/>
-    <brk id="78" max="11" man="1"/>
-    <brk id="101" max="11" man="1"/>
+    <brk id="81" max="11" man="1"/>
+    <brk id="106" max="11" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD58"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2052,7 +2286,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C77&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C76&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C80&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C79&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="1"/&gt;</v>
       </c>
     </row>
@@ -2106,19 +2340,19 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B73&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C73&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D73&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F73&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E73&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B76&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C76&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D76&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F76&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E76&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B74&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C74&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D74&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F74&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E74&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B77&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C77&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D77&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F77&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E77&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B75&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C75&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D75&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F75&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E75&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B78&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C78&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D78&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F78&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E78&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
@@ -2130,258 +2364,270 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B80&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C80&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D80&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E79&amp;CHAR(34)&amp;"&gt;"</f>
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B83&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C83&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D83&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E82&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="S1" dose="1" indication="" label="PPSV"&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C100&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C99&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C105&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C104&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="2"/&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C83&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D83&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E83&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F83&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="65 years" interval="8 weeks" grace="4 days" intervalGrace=""/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C86&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D86&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E86&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F86&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="65 years" interval="8 weeks" grace="4 days" intervalGrace="4 weeks 4 days"/&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C84&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D84&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E84&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C87&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D87&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E87&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C85&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D85&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E85&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C88&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D88&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E88&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="" interval="6 months" grace=""/&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C86&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D86&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E86&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C89&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D89&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E89&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="66 years" interval="13 months" grace=""/&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C87&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D87&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E87&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C90&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D90&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E90&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D88&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E88&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D91&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E91&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D89&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D92&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="str">
-        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C90&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C93&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PPSV"/&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="str">
-        <f>"    &lt;completed seriesName="&amp;CHAR(34)&amp;Schedules!C91&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;completed seriesName="&amp;CHAR(34)&amp;Schedules!C94&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;completed seriesName="PCV13"/&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="str">
-        <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B94&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C94&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D94&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E94&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F94&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;contraindicate vaccineName="PPSV" afterInterval="5 years" age="" reason="" grace=""/&gt;</v>
+        <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B97&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C97&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D97&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E97&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F97&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;contraindicate vaccineName="PPSV" afterInterval="5 years" age="" reason="" grace="5 years"/&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B97&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C97&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D97&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F97&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E97&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B101&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C101&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D101&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F101&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E101&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="INVALID" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B98&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C98&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D98&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F98&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E98&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B102&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C102&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D102&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F102&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E102&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="S1" age="65 years -4 d" reason="One dose of PPSV required after 65 years of age." historyOfVaccineName=""/&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B103&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C103&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D103&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F103&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E103&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="str">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B103&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C103&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D103&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E102&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="C1" dose="1" indication="" label="PCV-13 after PPSV"&gt;</v>
-      </c>
-    </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C120&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C119&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;pos row="2" column="1"/&gt;</v>
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B108&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C108&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D108&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E107&amp;CHAR(34)&amp;"&gt;"</f>
+        <v xml:space="preserve">  &lt;schedule scheduleName="C1" dose="1" indication="" label="PCV-13 after PPSV"&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C106&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D106&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E106&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F106&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 y -8 w -4 d"/&gt;</v>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C128&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C127&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;pos row="2" column="1"/&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C107&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D107&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E107&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C111&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D111&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E111&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F111&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 y -4 w 4 d"/&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C108&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D108&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E108&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C112&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D112&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E112&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C109&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D109&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E109&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C113&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D113&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E113&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C110&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D110&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E110&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C114&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D114&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E114&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D111&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E111&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C115&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D115&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E115&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D112&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D116&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E116&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="str">
-        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C113&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D117&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="str">
+        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C118&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B116&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C116&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D116&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F116&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E116&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B117&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C117&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D117&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F117&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E117&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B124&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C124&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D124&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F124&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E124&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B118&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C118&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D118&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F118&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E118&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B125&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C125&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D125&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F125&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E125&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B126&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C126&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D126&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F126&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E126&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="str">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B123&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C123&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D123&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E122&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="C2" dose="1" indication="" label="PCV-13 after PPSVs"&gt;</v>
-      </c>
-    </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C139&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C138&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;pos row="2" column="2"/&gt;</v>
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B131&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C131&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D131&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E130&amp;CHAR(34)&amp;"&gt;"</f>
+        <v xml:space="preserve">  &lt;schedule scheduleName="C2" dose="1" indication="" label="PCV-13 after PPSVs"&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C126&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D126&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E126&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F126&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 y -8 w -4 d"/&gt;</v>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C151&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C150&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;pos row="2" column="2"/&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C127&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D127&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E127&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C134&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D134&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E134&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F134&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 y -4 w 4 d"/&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C128&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D128&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E128&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C135&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D135&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E135&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C129&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D129&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E129&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C136&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D136&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E136&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C130&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D130&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E130&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C137&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D137&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E137&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D131&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E131&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C138&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D138&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E138&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D132&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D139&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E139&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="str">
-        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C133&amp;CHAR(34)&amp;"/&gt;"</f>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D140&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="str">
+        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C141&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B136&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C136&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D136&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F136&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E136&amp;CHAR(34)&amp;"/&gt;"</f>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="str">
+        <f>"    &lt;completed seriesName="&amp;CHAR(34)&amp;Schedules!C142&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;completed seriesName="PPSV"/&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B148&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C148&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D148&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F148&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E148&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B137&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C137&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D137&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F137&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E137&amp;CHAR(34)&amp;"/&gt;"</f>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B149&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C149&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D149&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F149&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E149&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="20" t="str">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="str">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="19" t="str">
         <f>"&lt;/forecast&gt;"</f>
         <v>&lt;/forecast&gt;</v>
       </c>

--- a/schedules/Pneumo65.xlsx
+++ b/schedules/Pneumo65.xlsx
@@ -254,10 +254,10 @@
     <t>Invalid Same Day Combinations</t>
   </si>
   <si>
-    <t>Invalidated</t>
-  </si>
-  <si>
     <t>If given same day as</t>
+  </si>
+  <si>
+    <t>Invalidate</t>
   </si>
 </sst>
 </file>
@@ -504,27 +504,39 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -533,18 +545,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,6 +561,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>148807</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>103064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="3057525"/>
+          <a:ext cx="6435307" cy="5732339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -944,13 +993,13 @@
       <c r="D2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -1069,11 +1118,11 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
@@ -1092,20 +1141,20 @@
       <c r="D12" s="9"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
@@ -1157,12 +1206,12 @@
       <c r="F60" s="14"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
       <c r="F61" s="14"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
@@ -1265,11 +1314,11 @@
       <c r="F70" s="14"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
@@ -1302,11 +1351,11 @@
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
       <c r="F74" s="14"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
@@ -1322,14 +1371,14 @@
       <c r="E75" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="33" t="s">
+      <c r="F75" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="35"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="38"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="9" t="s">
@@ -1342,12 +1391,12 @@
         <v>55</v>
       </c>
       <c r="E76" s="9"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="38"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="41"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
@@ -1358,12 +1407,12 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="41"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="45"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
@@ -1374,12 +1423,12 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="41"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="45"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="17" t="s">
@@ -1421,12 +1470,12 @@
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="32" t="s">
+      <c r="B84" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="16"/>
@@ -1456,7 +1505,7 @@
       <c r="E86" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F86" s="45" t="s">
+      <c r="F86" s="32" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1537,11 +1586,11 @@
       <c r="E94" s="14"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B95" s="32" t="s">
+      <c r="B95" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
@@ -1587,11 +1636,11 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B99" s="32" t="s">
+      <c r="B99" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="6" t="s">
@@ -1606,14 +1655,14 @@
       <c r="E100" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F100" s="33" t="s">
+      <c r="F100" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="34"/>
-      <c r="K100" s="35"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="38"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="9" t="s">
@@ -1624,12 +1673,12 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="37"/>
-      <c r="K101" s="38"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
+      <c r="I101" s="40"/>
+      <c r="J101" s="40"/>
+      <c r="K101" s="41"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
@@ -1660,12 +1709,12 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="40"/>
-      <c r="H103" s="40"/>
-      <c r="I103" s="40"/>
-      <c r="J103" s="40"/>
-      <c r="K103" s="41"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="45"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="17" t="s">
@@ -1704,12 +1753,12 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B109" s="32" t="s">
+      <c r="B109" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
-      <c r="E109" s="32"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" s="16"/>
@@ -1739,7 +1788,7 @@
       <c r="E111" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F111" s="45" t="s">
+      <c r="F111" s="32" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1808,11 +1857,11 @@
       <c r="E118" s="14"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B119" s="32" t="s">
+      <c r="B119" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B120" s="6" t="s">
@@ -1845,11 +1894,11 @@
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B122" s="32" t="s">
+      <c r="B122" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B123" s="6" t="s">
@@ -1864,14 +1913,14 @@
       <c r="E123" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F123" s="33" t="s">
+      <c r="F123" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G123" s="34"/>
-      <c r="H123" s="34"/>
-      <c r="I123" s="34"/>
-      <c r="J123" s="34"/>
-      <c r="K123" s="35"/>
+      <c r="G123" s="42"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="42"/>
+      <c r="K123" s="38"/>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B124" s="9" t="s">
@@ -1884,12 +1933,12 @@
         <v>55</v>
       </c>
       <c r="E124" s="9"/>
-      <c r="F124" s="36"/>
-      <c r="G124" s="37"/>
-      <c r="H124" s="37"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="37"/>
-      <c r="K124" s="38"/>
+      <c r="F124" s="39"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="40"/>
+      <c r="I124" s="40"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="41"/>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B125" s="9" t="s">
@@ -1916,12 +1965,12 @@
       </c>
       <c r="D126" s="22"/>
       <c r="E126" s="22"/>
-      <c r="F126" s="42"/>
-      <c r="G126" s="43"/>
-      <c r="H126" s="43"/>
-      <c r="I126" s="43"/>
-      <c r="J126" s="43"/>
-      <c r="K126" s="44"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="34"/>
+      <c r="I126" s="34"/>
+      <c r="J126" s="34"/>
+      <c r="K126" s="35"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B127" s="17" t="s">
@@ -1960,12 +2009,12 @@
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B132" s="32" t="s">
+      <c r="B132" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C132" s="32"/>
-      <c r="D132" s="32"/>
-      <c r="E132" s="32"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="16"/>
@@ -1995,7 +2044,7 @@
       <c r="E134" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F134" s="45" t="s">
+      <c r="F134" s="32" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2074,11 +2123,11 @@
       <c r="E142" s="14"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B143" s="32" t="s">
+      <c r="B143" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C143" s="32"/>
-      <c r="D143" s="32"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="36"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="6" t="s">
@@ -2115,11 +2164,11 @@
       </c>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B146" s="32" t="s">
+      <c r="B146" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C146" s="32"/>
-      <c r="D146" s="32"/>
+      <c r="C146" s="36"/>
+      <c r="D146" s="36"/>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B147" s="6" t="s">
@@ -2134,14 +2183,14 @@
       <c r="E147" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F147" s="33" t="s">
+      <c r="F147" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G147" s="34"/>
-      <c r="H147" s="34"/>
-      <c r="I147" s="34"/>
-      <c r="J147" s="34"/>
-      <c r="K147" s="35"/>
+      <c r="G147" s="42"/>
+      <c r="H147" s="42"/>
+      <c r="I147" s="42"/>
+      <c r="J147" s="42"/>
+      <c r="K147" s="38"/>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B148" s="9" t="s">
@@ -2152,12 +2201,12 @@
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="36"/>
-      <c r="G148" s="37"/>
-      <c r="H148" s="37"/>
-      <c r="I148" s="37"/>
-      <c r="J148" s="37"/>
-      <c r="K148" s="38"/>
+      <c r="F148" s="39"/>
+      <c r="G148" s="40"/>
+      <c r="H148" s="40"/>
+      <c r="I148" s="40"/>
+      <c r="J148" s="40"/>
+      <c r="K148" s="41"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B149" s="9" t="s">
@@ -2168,12 +2217,12 @@
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
-      <c r="F149" s="36"/>
-      <c r="G149" s="37"/>
-      <c r="H149" s="37"/>
-      <c r="I149" s="37"/>
-      <c r="J149" s="37"/>
-      <c r="K149" s="38"/>
+      <c r="F149" s="39"/>
+      <c r="G149" s="40"/>
+      <c r="H149" s="40"/>
+      <c r="I149" s="40"/>
+      <c r="J149" s="40"/>
+      <c r="K149" s="41"/>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B150" s="17" t="s">
@@ -2194,12 +2243,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="29">
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="F76:K76"/>
+    <mergeCell ref="F78:K78"/>
+    <mergeCell ref="F77:K77"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="B84:E84"/>
@@ -2216,12 +2264,13 @@
     <mergeCell ref="F124:K124"/>
     <mergeCell ref="F147:K147"/>
     <mergeCell ref="F103:K103"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F75:K75"/>
-    <mergeCell ref="F76:K76"/>
-    <mergeCell ref="F78:K78"/>
-    <mergeCell ref="F77:K77"/>
     <mergeCell ref="B95:D95"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
@@ -2237,15 +2286,16 @@
     <brk id="81" max="11" man="1"/>
     <brk id="106" max="11" man="1"/>
   </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A65"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection sqref="A1:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2279,355 +2329,367 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="str">
+      <c r="A5" s="19" t="str">
+        <f>"  &lt;invalidateSameDay vaccineName="&amp;CHAR(34)&amp;Schedules!B16&amp;CHAR(34)&amp;" ifGiven="&amp;CHAR(34)&amp;Schedules!C16&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">  &lt;invalidateSameDay vaccineName="PCV13" ifGiven="Menactra"/&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="str">
+        <f>"  &lt;invalidateSameDay vaccineName="&amp;CHAR(34)&amp;Schedules!B17&amp;CHAR(34)&amp;" ifGiven="&amp;CHAR(34)&amp;Schedules!C17&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">  &lt;invalidateSameDay vaccineName="PCV13" ifGiven="PPSV"/&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B60&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C60&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D60&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E59&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="P1" dose="1" indication="Age 19 Years" label="PCV-13"&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="str">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C80&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C79&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="1"/&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="str">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C63&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D63&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E63&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F63&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="65 years" interval="" grace="46 years" intervalGrace=""/&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="str">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C64&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D64&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E64&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="str">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C65&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D65&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E65&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="str">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C66&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D66&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E66&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="str">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C67&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D67&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E67&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="str">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D68&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E68&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="0 days" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="str">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D69&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="str">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C70&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="str">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B76&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C76&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D76&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F76&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E76&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="str">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B77&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C77&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D77&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F77&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E77&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="str">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B78&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C78&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D78&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F78&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E78&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="str">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="str">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B83&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C83&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D83&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E82&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="S1" dose="1" indication="" label="PPSV"&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="str">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C105&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C104&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="2"/&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="str">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C86&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D86&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E86&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F86&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="65 years" interval="8 weeks" grace="4 days" intervalGrace="4 weeks 4 days"/&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="str">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C87&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D87&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E87&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="str">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C88&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D88&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E88&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="" interval="6 months" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="str">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C89&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D89&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E89&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="66 years" interval="13 months" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="str">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C90&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D90&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E90&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="str">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D91&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E91&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="str">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D92&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="str">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C93&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PPSV"/&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="str">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="str">
         <f>"    &lt;completed seriesName="&amp;CHAR(34)&amp;Schedules!C94&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;completed seriesName="PCV13"/&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="str">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B97&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C97&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D97&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E97&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F97&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;contraindicate vaccineName="PPSV" afterInterval="5 years" age="" reason="" grace="5 years"/&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="str">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B101&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C101&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D101&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F101&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E101&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="INVALID" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="str">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B102&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C102&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D102&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F102&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E102&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="S1" age="65 years -4 d" reason="One dose of PPSV required after 65 years of age." historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="str">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B103&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C103&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D103&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F103&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E103&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="str">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="str">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B108&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C108&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D108&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E107&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="C1" dose="1" indication="" label="PCV-13 after PPSV"&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="str">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C128&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C127&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="2" column="1"/&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="str">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C111&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D111&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E111&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F111&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 y -4 w 4 d"/&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="str">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C112&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D112&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E112&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="str">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C113&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D113&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E113&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="str">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C114&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D114&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E114&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="str">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C115&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D115&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E115&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="str">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D116&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E116&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="str">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D117&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="str">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C118&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="str">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B124&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C124&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D124&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F124&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E124&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="str">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B125&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C125&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D125&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F125&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E125&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="str">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B126&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C126&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D126&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F126&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E126&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="str">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="str">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B131&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C131&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D131&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E130&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="C2" dose="1" indication="" label="PCV-13 after PPSVs"&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="str">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C151&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C150&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="2" column="2"/&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="str">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C134&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D134&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E134&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F134&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 y -4 w 4 d"/&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="str">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C135&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D135&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E135&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="str">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C136&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D136&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E136&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="20" t="str">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C137&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D137&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E137&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="str">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C138&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D138&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E138&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="str">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D139&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E139&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="str">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D140&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="str">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C141&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="str">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="str">
         <f>"    &lt;completed seriesName="&amp;CHAR(34)&amp;Schedules!C142&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;completed seriesName="PPSV"/&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="21" t="str">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B148&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C148&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D148&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F148&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E148&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="str">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B149&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C149&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D149&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F149&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E149&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="20" t="str">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="str">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="19" t="str">
         <f>"&lt;/forecast&gt;"</f>
         <v>&lt;/forecast&gt;</v>
       </c>

--- a/schedules/Pneumo65.xlsx
+++ b/schedules/Pneumo65.xlsx
@@ -507,6 +507,36 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -515,36 +545,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -962,9 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K91" sqref="K91"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -993,13 +991,13 @@
       <c r="D2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -1118,11 +1116,11 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
@@ -1141,20 +1139,20 @@
       <c r="D12" s="9"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
@@ -1206,12 +1204,12 @@
       <c r="F60" s="14"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
       <c r="F61" s="14"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
@@ -1314,11 +1312,11 @@
       <c r="F70" s="14"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
@@ -1351,11 +1349,11 @@
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
       <c r="F74" s="14"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
@@ -1371,14 +1369,14 @@
       <c r="E75" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="37" t="s">
+      <c r="F75" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="38"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="36"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="9" t="s">
@@ -1391,12 +1389,12 @@
         <v>55</v>
       </c>
       <c r="E76" s="9"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="41"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="39"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
@@ -1407,12 +1405,12 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="45"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="42"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
@@ -1423,12 +1421,12 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="45"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="42"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="17" t="s">
@@ -1470,12 +1468,12 @@
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="16"/>
@@ -1586,11 +1584,11 @@
       <c r="E94" s="14"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
@@ -1636,11 +1634,11 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B99" s="36" t="s">
+      <c r="B99" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="6" t="s">
@@ -1655,14 +1653,14 @@
       <c r="E100" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F100" s="37" t="s">
+      <c r="F100" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="38"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="36"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="9" t="s">
@@ -1673,12 +1671,12 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="40"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="40"/>
-      <c r="K101" s="41"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="38"/>
+      <c r="J101" s="38"/>
+      <c r="K101" s="39"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
@@ -1709,12 +1707,12 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="44"/>
-      <c r="J103" s="44"/>
-      <c r="K103" s="45"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
+      <c r="K103" s="42"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="17" t="s">
@@ -1753,12 +1751,12 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B109" s="36" t="s">
+      <c r="B109" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" s="16"/>
@@ -1857,11 +1855,11 @@
       <c r="E118" s="14"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B119" s="36" t="s">
+      <c r="B119" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C119" s="36"/>
-      <c r="D119" s="36"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B120" s="6" t="s">
@@ -1894,11 +1892,11 @@
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B122" s="36" t="s">
+      <c r="B122" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C122" s="36"/>
-      <c r="D122" s="36"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B123" s="6" t="s">
@@ -1913,14 +1911,14 @@
       <c r="E123" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F123" s="37" t="s">
+      <c r="F123" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G123" s="42"/>
-      <c r="H123" s="42"/>
-      <c r="I123" s="42"/>
-      <c r="J123" s="42"/>
-      <c r="K123" s="38"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="35"/>
+      <c r="J123" s="35"/>
+      <c r="K123" s="36"/>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B124" s="9" t="s">
@@ -1933,12 +1931,12 @@
         <v>55</v>
       </c>
       <c r="E124" s="9"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="40"/>
-      <c r="H124" s="40"/>
-      <c r="I124" s="40"/>
-      <c r="J124" s="40"/>
-      <c r="K124" s="41"/>
+      <c r="F124" s="37"/>
+      <c r="G124" s="38"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="38"/>
+      <c r="J124" s="38"/>
+      <c r="K124" s="39"/>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B125" s="9" t="s">
@@ -1965,12 +1963,12 @@
       </c>
       <c r="D126" s="22"/>
       <c r="E126" s="22"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="34"/>
-      <c r="H126" s="34"/>
-      <c r="I126" s="34"/>
-      <c r="J126" s="34"/>
-      <c r="K126" s="35"/>
+      <c r="F126" s="43"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="44"/>
+      <c r="I126" s="44"/>
+      <c r="J126" s="44"/>
+      <c r="K126" s="45"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B127" s="17" t="s">
@@ -2009,12 +2007,12 @@
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B132" s="36" t="s">
+      <c r="B132" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C132" s="36"/>
-      <c r="D132" s="36"/>
-      <c r="E132" s="36"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="33"/>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="16"/>
@@ -2123,11 +2121,11 @@
       <c r="E142" s="14"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B143" s="36" t="s">
+      <c r="B143" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C143" s="36"/>
-      <c r="D143" s="36"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="33"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="6" t="s">
@@ -2164,11 +2162,11 @@
       </c>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B146" s="36" t="s">
+      <c r="B146" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C146" s="36"/>
-      <c r="D146" s="36"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B147" s="6" t="s">
@@ -2183,14 +2181,14 @@
       <c r="E147" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F147" s="37" t="s">
+      <c r="F147" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G147" s="42"/>
-      <c r="H147" s="42"/>
-      <c r="I147" s="42"/>
-      <c r="J147" s="42"/>
-      <c r="K147" s="38"/>
+      <c r="G147" s="35"/>
+      <c r="H147" s="35"/>
+      <c r="I147" s="35"/>
+      <c r="J147" s="35"/>
+      <c r="K147" s="36"/>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B148" s="9" t="s">
@@ -2201,12 +2199,12 @@
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="39"/>
-      <c r="G148" s="40"/>
-      <c r="H148" s="40"/>
-      <c r="I148" s="40"/>
-      <c r="J148" s="40"/>
-      <c r="K148" s="41"/>
+      <c r="F148" s="37"/>
+      <c r="G148" s="38"/>
+      <c r="H148" s="38"/>
+      <c r="I148" s="38"/>
+      <c r="J148" s="38"/>
+      <c r="K148" s="39"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B149" s="9" t="s">
@@ -2217,12 +2215,12 @@
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
-      <c r="F149" s="39"/>
-      <c r="G149" s="40"/>
-      <c r="H149" s="40"/>
-      <c r="I149" s="40"/>
-      <c r="J149" s="40"/>
-      <c r="K149" s="41"/>
+      <c r="F149" s="37"/>
+      <c r="G149" s="38"/>
+      <c r="H149" s="38"/>
+      <c r="I149" s="38"/>
+      <c r="J149" s="38"/>
+      <c r="K149" s="39"/>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B150" s="17" t="s">
@@ -2243,11 +2241,14 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="29">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F75:K75"/>
-    <mergeCell ref="F76:K76"/>
-    <mergeCell ref="F78:K78"/>
-    <mergeCell ref="F77:K77"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B95:D95"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="B84:E84"/>
@@ -2264,14 +2265,11 @@
     <mergeCell ref="F124:K124"/>
     <mergeCell ref="F147:K147"/>
     <mergeCell ref="F103:K103"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="F76:K76"/>
+    <mergeCell ref="F78:K78"/>
+    <mergeCell ref="F77:K77"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2292,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A65"/>
+  <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection sqref="A1:A65"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection sqref="A1:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2330,366 +2328,372 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="str">
+        <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B7&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C7&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="Menactra" vaccineIds="183, 184"/&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="str">
         <f>"  &lt;invalidateSameDay vaccineName="&amp;CHAR(34)&amp;Schedules!B16&amp;CHAR(34)&amp;" ifGiven="&amp;CHAR(34)&amp;Schedules!C16&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">  &lt;invalidateSameDay vaccineName="PCV13" ifGiven="Menactra"/&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="str">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="str">
         <f>"  &lt;invalidateSameDay vaccineName="&amp;CHAR(34)&amp;Schedules!B17&amp;CHAR(34)&amp;" ifGiven="&amp;CHAR(34)&amp;Schedules!C17&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">  &lt;invalidateSameDay vaccineName="PCV13" ifGiven="PPSV"/&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="str">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B60&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C60&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D60&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E59&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="P1" dose="1" indication="Age 19 Years" label="PCV-13"&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="str">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C80&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C79&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="1"/&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="str">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C63&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D63&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E63&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F63&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="65 years" interval="" grace="46 years" intervalGrace=""/&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="str">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C64&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D64&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E64&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="str">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C65&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D65&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E65&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="str">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C66&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D66&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E66&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="str">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C67&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D67&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E67&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="str">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D68&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E68&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="0 days" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="str">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D69&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="str">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C70&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="str">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B76&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C76&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D76&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F76&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E76&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="str">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B77&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C77&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D77&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F77&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E77&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="str">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B78&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C78&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D78&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F78&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E78&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="str">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="str">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B83&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C83&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D83&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E82&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="S1" dose="1" indication="" label="PPSV"&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="str">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C105&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C104&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="2"/&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="str">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C86&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D86&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E86&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F86&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="65 years" interval="8 weeks" grace="4 days" intervalGrace="4 weeks 4 days"/&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="str">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C87&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D87&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E87&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="str">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C88&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D88&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E88&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="" interval="6 months" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="str">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C89&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D89&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E89&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="66 years" interval="13 months" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="str">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C90&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D90&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E90&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="str">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D91&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E91&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="str">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D92&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="str">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C93&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PPSV"/&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="str">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="str">
         <f>"    &lt;completed seriesName="&amp;CHAR(34)&amp;Schedules!C94&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;completed seriesName="PCV13"/&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="str">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B97&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C97&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D97&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E97&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F97&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;contraindicate vaccineName="PPSV" afterInterval="5 years" age="" reason="" grace="5 years"/&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="str">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B101&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C101&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D101&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F101&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E101&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="INVALID" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="str">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B102&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C102&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D102&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F102&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E102&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="S1" age="65 years -4 d" reason="One dose of PPSV required after 65 years of age." historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="str">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B103&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C103&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D103&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F103&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E103&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="str">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="str">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B108&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C108&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D108&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E107&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="C1" dose="1" indication="" label="PCV-13 after PPSV"&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="str">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C128&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C127&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="2" column="1"/&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="str">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C111&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D111&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E111&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F111&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 y -4 w 4 d"/&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="str">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C112&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D112&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E112&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="str">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C113&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D113&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E113&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="str">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C114&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D114&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E114&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="str">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C115&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D115&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E115&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="str">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D116&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E116&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="str">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D117&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="str">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C118&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="str">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B124&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C124&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D124&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F124&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E124&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="str">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B125&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C125&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D125&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F125&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E125&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="str">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B126&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C126&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D126&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F126&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E126&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="str">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="str">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B131&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C131&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D131&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E130&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="C2" dose="1" indication="" label="PCV-13 after PPSVs"&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="str">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C151&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C150&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="2" column="2"/&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="str">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C134&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D134&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E134&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F134&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 y -4 w 4 d"/&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="20" t="str">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C135&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D135&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E135&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="str">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C136&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D136&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E136&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="str">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C137&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D137&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E137&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="str">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C138&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D138&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E138&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="str">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D139&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E139&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="str">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D140&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="20" t="str">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C141&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="20" t="str">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="str">
         <f>"    &lt;completed seriesName="&amp;CHAR(34)&amp;Schedules!C142&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;completed seriesName="PPSV"/&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="str">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B148&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C148&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D148&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F148&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E148&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="str">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B149&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C149&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D149&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F149&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E149&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="20" t="str">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="str">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="str">
         <f>"&lt;/forecast&gt;"</f>
         <v>&lt;/forecast&gt;</v>
       </c>

--- a/schedules/Pneumo65.xlsx
+++ b/schedules/Pneumo65.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="78">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -128,9 +128,6 @@
     <t>6 months</t>
   </si>
   <si>
-    <t>0 days</t>
-  </si>
-  <si>
     <t>Transitions</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Invalidate</t>
+  </si>
+  <si>
+    <t>155, 156</t>
   </si>
 </sst>
 </file>
@@ -989,7 +989,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>1</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>59</v>
       </c>
       <c r="D3" s="27"/>
       <c r="G3" s="7" t="s">
@@ -1057,10 +1057,10 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="10">
-        <v>155</v>
+        <v>39</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="D6" s="11"/>
       <c r="G6" s="10" t="s">
@@ -1075,10 +1075,10 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="31"/>
       <c r="G7" s="10" t="s">
@@ -1093,11 +1093,11 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G8" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="9">
@@ -1106,7 +1106,7 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G9" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
@@ -1117,20 +1117,20 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -1140,17 +1140,17 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="36"/>
     </row>
@@ -1159,7 +1159,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="31"/>
     </row>
@@ -1168,7 +1168,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="31"/>
     </row>
@@ -1187,7 +1187,7 @@
         <v>12</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F59" s="14"/>
     </row>
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F60" s="14"/>
     </row>
@@ -1230,11 +1230,11 @@
         <v>18</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F63" s="14"/>
     </row>
@@ -1252,7 +1252,7 @@
         <v>21</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -1263,7 +1263,7 @@
         <v>22</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -1274,7 +1274,7 @@
         <v>23</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="9" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="14"/>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>7</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
@@ -1323,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>27</v>
@@ -1337,15 +1337,15 @@
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
@@ -1380,13 +1380,13 @@
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="D76" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="37"/>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -1417,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -1436,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C83" s="15">
         <v>1</v>
@@ -1487,7 +1487,7 @@
         <v>17</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.2">
@@ -1495,16 +1495,16 @@
         <v>18</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F86" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
@@ -1530,10 +1530,10 @@
         <v>22</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E89" s="9"/>
     </row>
@@ -1542,7 +1542,7 @@
         <v>23</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -1565,17 +1565,17 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>7</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C95" s="33"/>
       <c r="D95" s="33"/>
@@ -1595,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>27</v>
@@ -1609,28 +1609,28 @@
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
@@ -1667,7 +1667,7 @@
         <v>7</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -1680,17 +1680,17 @@
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G102" s="28"/>
       <c r="H102" s="28"/>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>30</v>
@@ -1739,12 +1739,12 @@
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C108" s="15">
         <v>1</v>
@@ -1770,7 +1770,7 @@
         <v>17</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.2">
@@ -1778,16 +1778,16 @@
         <v>18</v>
       </c>
       <c r="C111" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D111" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="F111" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
         <v>21</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -1813,7 +1813,7 @@
         <v>22</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -1823,7 +1823,7 @@
         <v>23</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>7</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C119" s="33"/>
       <c r="D119" s="33"/>
@@ -1866,7 +1866,7 @@
         <v>3</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>27</v>
@@ -1880,15 +1880,15 @@
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B121" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.2">
@@ -1922,13 +1922,13 @@
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B124" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C124" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="D124" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="37"/>
@@ -1940,10 +1940,10 @@
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B125" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -1959,7 +1959,7 @@
         <v>7</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D126" s="22"/>
       <c r="E126" s="22"/>
@@ -1995,12 +1995,12 @@
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C131" s="15">
         <v>1</v>
@@ -2026,7 +2026,7 @@
         <v>17</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.2">
@@ -2034,16 +2034,16 @@
         <v>18</v>
       </c>
       <c r="C134" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E134" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D134" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="F134" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.2">
@@ -2059,7 +2059,7 @@
         <v>21</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -2069,7 +2069,7 @@
         <v>22</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -2079,7 +2079,7 @@
         <v>23</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>7</v>
@@ -2112,17 +2112,17 @@
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D142" s="14"/>
       <c r="E142" s="14"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C143" s="33"/>
       <c r="D143" s="33"/>
@@ -2132,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>27</v>
@@ -2144,15 +2144,15 @@
         <v>17</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B145" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B148" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
@@ -2290,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection sqref="A1:A66"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2323,7 +2323,7 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B6&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C6&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="PPSV" vaccineIds="155"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="PPSV" vaccineIds="155, 156"/&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -2389,7 +2389,7 @@
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D68&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E68&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="0 days" grace=""/&gt;</v>
+        <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace=""/&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -2405,295 +2405,319 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="str">
+      <c r="A18" s="20" t="str">
+        <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B73&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C73&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D73&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E73&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F73&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;contraindicate vaccineName="Menactra" afterInterval="4 weeks" age="" reason="" grace="4 weeks"/&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B76&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C76&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D76&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F76&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E76&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="str">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B77&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C77&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D77&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F77&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E77&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="str">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B78&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C78&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D78&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F78&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E78&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="str">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="str">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B83&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C83&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D83&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E82&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="S1" dose="1" indication="" label="PPSV"&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="str">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C105&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C104&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="2"/&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="str">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C86&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D86&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E86&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F86&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="65 years" interval="8 weeks" grace="4 days" intervalGrace="4 weeks 4 days"/&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="str">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C87&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D87&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E87&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="str">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C88&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D88&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E88&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="" interval="6 months" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="str">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C89&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D89&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E89&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="66 years" interval="13 months" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="str">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C90&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D90&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E90&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="str">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D91&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E91&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="str">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D92&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="str">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C93&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PPSV"/&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="str">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="str">
         <f>"    &lt;completed seriesName="&amp;CHAR(34)&amp;Schedules!C94&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;completed seriesName="PCV13"/&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="str">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B97&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C97&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D97&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E97&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F97&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;contraindicate vaccineName="PPSV" afterInterval="5 years" age="" reason="" grace="5 years"/&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="str">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="str">
+        <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B98&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C98&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D98&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E98&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F98&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;contraindicate vaccineName="Menactra" afterInterval="4 weeks" age="" reason="" grace="4 weeks"/&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B101&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C101&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D101&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F101&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E101&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="INVALID" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="str">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B102&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C102&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D102&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F102&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E102&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="S1" age="65 years -4 d" reason="One dose of PPSV required after 65 years of age." historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="str">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B103&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C103&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D103&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F103&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E103&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="str">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="str">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B108&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C108&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D108&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E107&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="C1" dose="1" indication="" label="PCV-13 after PPSV"&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="str">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C128&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C127&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="2" column="1"/&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="str">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C111&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D111&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E111&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F111&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 y -4 w 4 d"/&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="str">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C112&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D112&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E112&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="str">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C113&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D113&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E113&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="str">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C114&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D114&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E114&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="str">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C115&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D115&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E115&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="str">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D116&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E116&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="str">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D117&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="str">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C118&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="str">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="str">
+        <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B121&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C121&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D121&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E121&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F121&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;contraindicate vaccineName="Menactra" afterInterval="4 weeks" age="" reason="" grace="4 weeks"/&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B124&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C124&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D124&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F124&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E124&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="str">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B125&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C125&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D125&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F125&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E125&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="21" t="str">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B126&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C126&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D126&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F126&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E126&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="str">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="str">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B131&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C131&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D131&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E130&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="C2" dose="1" indication="" label="PCV-13 after PPSVs"&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="str">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C151&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C150&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="2" column="2"/&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="20" t="str">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C134&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D134&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E134&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F134&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 y -4 w 4 d"/&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="str">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C135&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D135&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E135&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="str">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C136&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D136&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E136&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="str">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C137&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D137&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E137&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="str">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C138&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D138&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E138&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="str">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D139&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E139&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="20" t="str">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D140&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="20" t="str">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C141&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="20" t="str">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="20" t="str">
         <f>"    &lt;completed seriesName="&amp;CHAR(34)&amp;Schedules!C142&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;completed seriesName="PPSV"/&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="str">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="str">
+        <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B145&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C145&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D145&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E145&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F145&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;contraindicate vaccineName="Menactra" afterInterval="4 weeks" age="" reason="" grace=""/&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B148&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C148&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D148&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F148&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E148&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="21" t="str">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B149&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C149&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D149&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F149&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E149&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="20" t="str">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="str">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="str">
         <f>"&lt;/forecast&gt;"</f>
         <v>&lt;/forecast&gt;</v>
       </c>

--- a/schedules/Pneumo65.xlsx
+++ b/schedules/Pneumo65.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\forecast\forecaster2012\schedules\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="15750" yWindow="90" windowWidth="13035" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Schedules" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
     <definedName name="Excel_BuiltIn_Print_Area_1_1">Schedules!$A$1:$L$152</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Schedules!$A$1:$L$152</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="75">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -125,9 +120,6 @@
     <t>Show Row</t>
   </si>
   <si>
-    <t>6 months</t>
-  </si>
-  <si>
     <t>Transitions</t>
   </si>
   <si>
@@ -176,9 +168,6 @@
     <t>PCV-13 after PPSVs</t>
   </si>
   <si>
-    <t>13 months</t>
-  </si>
-  <si>
     <t>INVALID</t>
   </si>
   <si>
@@ -206,9 +195,6 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>8 weeks</t>
-  </si>
-  <si>
     <t>In case of contraindicated dose</t>
   </si>
   <si>
@@ -242,9 +228,6 @@
     <t>Against</t>
   </si>
   <si>
-    <t>4 weeks 4 days</t>
-  </si>
-  <si>
     <t>1 y -4 w 4 d</t>
   </si>
   <si>
@@ -258,13 +241,16 @@
   </si>
   <si>
     <t>155, 156</t>
+  </si>
+  <si>
+    <t>2 years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -507,27 +493,36 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -536,15 +531,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,43 +554,54 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>148807</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>103064</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="https://documents.lucidchart.com/documents/934d76e6-0468-4b0a-b371-6f4dcd0ed125/pages/0_0?a=525&amp;x=111&amp;y=234&amp;w=1121&amp;h=1015&amp;store=1&amp;accept=image%2F*&amp;auth=LCA%20a2ed743e0c83c6a812c2bd7796b2a419976b2162-ts%3D1435695148"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1143000" y="3057525"/>
-          <a:ext cx="6435307" cy="5732339"/>
+          <a:off x="1066800" y="3019425"/>
+          <a:ext cx="6715125" cy="6076350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -655,7 +652,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -690,7 +687,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -879,11 +876,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -893,7 +890,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -921,11 +918,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -935,7 +932,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -952,19 +949,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
     <col min="2" max="5" width="14.42578125" style="1" customWidth="1"/>
@@ -982,29 +981,29 @@
     <col min="26" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="8.25" customHeight="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="C3" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="27"/>
       <c r="G3" s="7" t="s">
@@ -1019,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1055,12 +1054,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D6" s="11"/>
       <c r="G6" s="10" t="s">
@@ -1073,12 +1072,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>67</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>70</v>
       </c>
       <c r="D7" s="31"/>
       <c r="G7" s="10" t="s">
@@ -1091,22 +1090,22 @@
         <v>3143</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="G8" s="30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="9">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="G9" s="30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
@@ -1115,68 +1114,68 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="33" t="s">
+    <row r="10" spans="2:11">
+      <c r="B10" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
+      <c r="B14" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="36"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="38"/>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D16" s="31"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:10">
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10">
       <c r="B59" s="5" t="s">
         <v>10</v>
       </c>
@@ -1187,11 +1186,11 @@
         <v>12</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F59" s="14"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>13</v>
       </c>
@@ -1199,20 +1198,20 @@
         <v>1</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F60" s="14"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="33" t="s">
+    <row r="61" spans="2:10">
+      <c r="B61" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
       <c r="F61" s="14"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:10">
       <c r="B62" s="16"/>
       <c r="C62" s="6" t="s">
         <v>15</v>
@@ -1225,20 +1224,20 @@
       </c>
       <c r="F62" s="14"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10">
       <c r="B63" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10">
       <c r="B64" s="17" t="s">
         <v>20</v>
       </c>
@@ -1247,51 +1246,51 @@
       <c r="E64" s="9"/>
       <c r="F64" s="14"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11">
       <c r="B65" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="14"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11">
       <c r="B66" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="14"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11">
       <c r="B67" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11">
       <c r="B68" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="14"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11">
       <c r="B69" s="17" t="s">
         <v>25</v>
       </c>
@@ -1300,9 +1299,9 @@
       <c r="E69" s="9"/>
       <c r="F69" s="14"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11">
       <c r="B70" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>7</v>
@@ -1311,19 +1310,19 @@
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11">
+      <c r="B71" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+    </row>
+    <row r="72" spans="2:11">
       <c r="B72" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>27</v>
@@ -1335,28 +1334,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11">
       <c r="B73" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
       <c r="F74" s="14"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11">
       <c r="B75" s="6" t="s">
         <v>3</v>
       </c>
@@ -1369,66 +1368,66 @@
       <c r="E75" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="34" t="s">
+      <c r="F75" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="36"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="38"/>
+    </row>
+    <row r="76" spans="2:11">
       <c r="B76" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="D76" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E76" s="9"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="39"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F76" s="39"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="41"/>
+    </row>
+    <row r="77" spans="2:11">
       <c r="B77" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="42"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F77" s="43"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="45"/>
+    </row>
+    <row r="78" spans="2:11">
       <c r="B78" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="42"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F78" s="43"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="45"/>
+    </row>
+    <row r="79" spans="2:11">
       <c r="B79" s="17" t="s">
         <v>31</v>
       </c>
@@ -1436,10 +1435,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
       <c r="B80" s="17" t="s">
         <v>32</v>
       </c>
@@ -1447,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:6">
       <c r="B82" s="5" t="s">
         <v>10</v>
       </c>
@@ -1456,26 +1455,26 @@
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
       <c r="B83" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C83" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="33" t="s">
+    <row r="84" spans="2:6">
+      <c r="B84" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+    </row>
+    <row r="85" spans="2:6">
       <c r="B85" s="16"/>
       <c r="C85" s="6" t="s">
         <v>15</v>
@@ -1487,27 +1486,27 @@
         <v>17</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
       <c r="B86" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F86" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
       <c r="B87" s="17" t="s">
         <v>20</v>
       </c>
@@ -1515,39 +1514,39 @@
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:6">
       <c r="B88" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="C88" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" s="9"/>
       <c r="E88" s="9"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:6">
       <c r="B89" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:6">
       <c r="B90" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:6">
       <c r="B91" s="17" t="s">
         <v>24</v>
       </c>
@@ -1555,7 +1554,7 @@
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:6">
       <c r="B92" s="17" t="s">
         <v>25</v>
       </c>
@@ -1563,19 +1562,19 @@
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:6">
       <c r="B93" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:6">
       <c r="B94" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>7</v>
@@ -1583,19 +1582,19 @@
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B95" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:6">
+      <c r="B95" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+    </row>
+    <row r="96" spans="2:6">
       <c r="B96" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>27</v>
@@ -1607,40 +1606,40 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:11">
       <c r="B97" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B98" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B99" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+    </row>
+    <row r="100" spans="2:11">
       <c r="B100" s="6" t="s">
         <v>3</v>
       </c>
@@ -1653,44 +1652,44 @@
       <c r="E100" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F100" s="34" t="s">
+      <c r="F100" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="35"/>
-      <c r="K100" s="36"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="38"/>
+    </row>
+    <row r="101" spans="2:11">
       <c r="B101" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="38"/>
-      <c r="K101" s="39"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F101" s="39"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
+      <c r="I101" s="40"/>
+      <c r="J101" s="40"/>
+      <c r="K101" s="41"/>
+    </row>
+    <row r="102" spans="2:11">
       <c r="B102" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G102" s="28"/>
       <c r="H102" s="28"/>
@@ -1698,23 +1697,23 @@
       <c r="J102" s="28"/>
       <c r="K102" s="29"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:11">
       <c r="B103" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="40"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
-      <c r="K103" s="42"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F103" s="43"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="45"/>
+    </row>
+    <row r="104" spans="2:11">
       <c r="B104" s="17" t="s">
         <v>31</v>
       </c>
@@ -1722,7 +1721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:11">
       <c r="B105" s="17" t="s">
         <v>32</v>
       </c>
@@ -1730,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:11">
       <c r="B107" s="5" t="s">
         <v>10</v>
       </c>
@@ -1739,26 +1738,26 @@
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
       <c r="B108" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C108" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B109" s="33" t="s">
+    <row r="109" spans="2:11">
+      <c r="B109" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+    </row>
+    <row r="110" spans="2:11">
       <c r="B110" s="16"/>
       <c r="C110" s="6" t="s">
         <v>15</v>
@@ -1770,27 +1769,27 @@
         <v>17</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11">
       <c r="B111" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C111" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D111" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="F111" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11">
       <c r="B112" s="17" t="s">
         <v>20</v>
       </c>
@@ -1798,37 +1797,37 @@
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:11">
       <c r="B113" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:11">
       <c r="B114" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
     </row>
-    <row r="115" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:11" ht="12" customHeight="1">
       <c r="B115" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:11">
       <c r="B116" s="17" t="s">
         <v>24</v>
       </c>
@@ -1836,7 +1835,7 @@
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:11">
       <c r="B117" s="17" t="s">
         <v>25</v>
       </c>
@@ -1844,9 +1843,9 @@
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:11">
       <c r="B118" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>7</v>
@@ -1854,19 +1853,19 @@
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B119" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:11">
+      <c r="B119" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
+    </row>
+    <row r="120" spans="2:11">
       <c r="B120" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>27</v>
@@ -1878,27 +1877,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:11">
       <c r="B121" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B122" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
+    </row>
+    <row r="123" spans="2:11">
       <c r="B123" s="6" t="s">
         <v>3</v>
       </c>
@@ -1911,39 +1910,39 @@
       <c r="E123" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F123" s="34" t="s">
+      <c r="F123" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G123" s="35"/>
-      <c r="H123" s="35"/>
-      <c r="I123" s="35"/>
-      <c r="J123" s="35"/>
-      <c r="K123" s="36"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G123" s="42"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="42"/>
+      <c r="K123" s="38"/>
+    </row>
+    <row r="124" spans="2:11">
       <c r="B124" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C124" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="D124" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E124" s="9"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="38"/>
-      <c r="H124" s="38"/>
-      <c r="I124" s="38"/>
-      <c r="J124" s="38"/>
-      <c r="K124" s="39"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F124" s="39"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="40"/>
+      <c r="I124" s="40"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="41"/>
+    </row>
+    <row r="125" spans="2:11">
       <c r="B125" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -1954,23 +1953,23 @@
       <c r="J125" s="24"/>
       <c r="K125" s="25"/>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:11">
       <c r="B126" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D126" s="22"/>
       <c r="E126" s="22"/>
-      <c r="F126" s="43"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="44"/>
-      <c r="I126" s="44"/>
-      <c r="J126" s="44"/>
-      <c r="K126" s="45"/>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F126" s="33"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="34"/>
+      <c r="I126" s="34"/>
+      <c r="J126" s="34"/>
+      <c r="K126" s="35"/>
+    </row>
+    <row r="127" spans="2:11">
       <c r="B127" s="17" t="s">
         <v>31</v>
       </c>
@@ -1978,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:11">
       <c r="B128" s="17" t="s">
         <v>32</v>
       </c>
@@ -1986,7 +1985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:7">
       <c r="B130" s="5" t="s">
         <v>10</v>
       </c>
@@ -1995,26 +1994,26 @@
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7">
       <c r="B131" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C131" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B132" s="33" t="s">
+    <row r="132" spans="2:7">
+      <c r="B132" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
+    </row>
+    <row r="133" spans="2:7">
       <c r="B133" s="16"/>
       <c r="C133" s="6" t="s">
         <v>15</v>
@@ -2026,27 +2025,27 @@
         <v>17</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7">
       <c r="B134" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C134" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E134" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D134" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="F134" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
       <c r="B135" s="17" t="s">
         <v>20</v>
       </c>
@@ -2054,37 +2053,37 @@
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:7">
       <c r="B136" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:7">
       <c r="B137" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:7">
       <c r="B138" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:7">
       <c r="B139" s="17" t="s">
         <v>24</v>
       </c>
@@ -2092,7 +2091,7 @@
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:7">
       <c r="B140" s="17" t="s">
         <v>25</v>
       </c>
@@ -2100,9 +2099,9 @@
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:7">
       <c r="B141" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>7</v>
@@ -2110,29 +2109,29 @@
       <c r="D141" s="14"/>
       <c r="E141" s="14"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:7">
       <c r="B142" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D142" s="14"/>
       <c r="E142" s="14"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B143" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C143" s="33"/>
-      <c r="D143" s="33"/>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:7">
+      <c r="B143" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C143" s="36"/>
+      <c r="D143" s="36"/>
+    </row>
+    <row r="144" spans="2:7">
       <c r="B144" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>27</v>
@@ -2144,15 +2143,15 @@
         <v>17</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11">
       <c r="B145" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -2161,14 +2160,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B146" s="33" t="s">
+    <row r="146" spans="2:11">
+      <c r="B146" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C146" s="36"/>
+      <c r="D146" s="36"/>
+    </row>
+    <row r="147" spans="2:11">
       <c r="B147" s="6" t="s">
         <v>3</v>
       </c>
@@ -2181,32 +2180,32 @@
       <c r="E147" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F147" s="34" t="s">
+      <c r="F147" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G147" s="35"/>
-      <c r="H147" s="35"/>
-      <c r="I147" s="35"/>
-      <c r="J147" s="35"/>
-      <c r="K147" s="36"/>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G147" s="42"/>
+      <c r="H147" s="42"/>
+      <c r="I147" s="42"/>
+      <c r="J147" s="42"/>
+      <c r="K147" s="38"/>
+    </row>
+    <row r="148" spans="2:11">
       <c r="B148" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="38"/>
-      <c r="H148" s="38"/>
-      <c r="I148" s="38"/>
-      <c r="J148" s="38"/>
-      <c r="K148" s="39"/>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F148" s="39"/>
+      <c r="G148" s="40"/>
+      <c r="H148" s="40"/>
+      <c r="I148" s="40"/>
+      <c r="J148" s="40"/>
+      <c r="K148" s="41"/>
+    </row>
+    <row r="149" spans="2:11">
       <c r="B149" s="9" t="s">
         <v>7</v>
       </c>
@@ -2215,14 +2214,14 @@
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
-      <c r="F149" s="37"/>
-      <c r="G149" s="38"/>
-      <c r="H149" s="38"/>
-      <c r="I149" s="38"/>
-      <c r="J149" s="38"/>
-      <c r="K149" s="39"/>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F149" s="39"/>
+      <c r="G149" s="40"/>
+      <c r="H149" s="40"/>
+      <c r="I149" s="40"/>
+      <c r="J149" s="40"/>
+      <c r="K149" s="41"/>
+    </row>
+    <row r="150" spans="2:11">
       <c r="B150" s="17" t="s">
         <v>31</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:11">
       <c r="B151" s="17" t="s">
         <v>32</v>
       </c>
@@ -2241,14 +2240,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="29">
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="F76:K76"/>
+    <mergeCell ref="F78:K78"/>
+    <mergeCell ref="F77:K77"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="B84:E84"/>
@@ -2265,11 +2261,14 @@
     <mergeCell ref="F124:K124"/>
     <mergeCell ref="F147:K147"/>
     <mergeCell ref="F103:K103"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F75:K75"/>
-    <mergeCell ref="F76:K76"/>
-    <mergeCell ref="F78:K78"/>
-    <mergeCell ref="F77:K77"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B95:D95"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2289,434 +2288,434 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection sqref="A1:A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="106.28515625" customWidth="1"/>
     <col min="2" max="248" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="19" t="str">
         <f>"&lt;forecast seriesName="&amp;CHAR(34)&amp;Schedules!D2&amp;CHAR(34)&amp;" completes="&amp;CHAR(34)&amp;Schedules!C3&amp;CHAR(34)&amp;"&gt;"</f>
         <v>&lt;forecast seriesName="Pneumo65" completes="PCV,PPSV"&gt;</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="19" t="str">
         <f>IF(Schedules!B12="","","  &lt;transition name="&amp;CHAR(34)&amp;Schedules!B12&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!C12&amp;CHAR(34)&amp;" vaccineId="&amp;CHAR(34)&amp;Schedules!D12&amp;CHAR(34)&amp;"/&gt;")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="19" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B5&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C5&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">  &lt;vaccine vaccineName="PCV13" vaccineIds="3143"/&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="19" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B6&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C6&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">  &lt;vaccine vaccineName="PPSV" vaccineIds="155, 156"/&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" s="19" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B7&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C7&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">  &lt;vaccine vaccineName="Menactra" vaccineIds="183, 184"/&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" s="19" t="str">
         <f>"  &lt;invalidateSameDay vaccineName="&amp;CHAR(34)&amp;Schedules!B16&amp;CHAR(34)&amp;" ifGiven="&amp;CHAR(34)&amp;Schedules!C16&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">  &lt;invalidateSameDay vaccineName="PCV13" ifGiven="Menactra"/&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="19" t="str">
         <f>"  &lt;invalidateSameDay vaccineName="&amp;CHAR(34)&amp;Schedules!B17&amp;CHAR(34)&amp;" ifGiven="&amp;CHAR(34)&amp;Schedules!C17&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">  &lt;invalidateSameDay vaccineName="PCV13" ifGiven="PPSV"/&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" s="20" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B60&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C60&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D60&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E59&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="P1" dose="1" indication="Age 19 Years" label="PCV-13"&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="20" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C80&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C79&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="1"/&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C63&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D63&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E63&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F63&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="65 years" interval="" grace="46 years" intervalGrace=""/&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" s="20" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C64&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D64&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E64&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" s="20" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C65&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D65&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E65&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C66&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D66&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E66&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" s="20" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C67&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D67&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E67&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D68&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E68&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" s="20" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D69&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C70&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="20" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B73&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C73&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D73&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E73&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F73&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;contraindicate vaccineName="Menactra" afterInterval="4 weeks" age="" reason="" grace="4 weeks"/&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B76&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C76&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D76&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F76&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E76&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B77&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C77&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D77&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F77&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E77&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B78&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C78&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D78&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F78&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E78&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="20" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B83&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C83&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D83&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E82&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="S1" dose="1" indication="" label="PPSV"&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="20" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C105&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C104&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="2"/&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C86&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D86&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E86&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F86&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="65 years" interval="8 weeks" grace="4 days" intervalGrace="4 weeks 4 days"/&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="4 days" intervalGrace="1 year"/&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="20" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C87&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D87&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E87&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" s="20" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C88&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D88&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E88&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="" interval="6 months" grace=""/&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C89&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D89&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E89&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="66 years" interval="13 months" grace=""/&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">    &lt;overdue age="66 years" interval="2 years" grace=""/&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="20" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C90&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D90&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E90&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D91&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E91&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="20" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D92&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C93&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PPSV"/&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="20" t="str">
         <f>"    &lt;completed seriesName="&amp;CHAR(34)&amp;Schedules!C94&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;completed seriesName="PCV13"/&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="20" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B97&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C97&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D97&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E97&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F97&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;contraindicate vaccineName="PPSV" afterInterval="5 years" age="" reason="" grace="5 years"/&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="20" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B98&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C98&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D98&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E98&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F98&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;contraindicate vaccineName="Menactra" afterInterval="4 weeks" age="" reason="" grace="4 weeks"/&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B101&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C101&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D101&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F101&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E101&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="INVALID" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B102&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C102&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D102&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F102&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E102&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="S1" age="65 years -4 d" reason="One dose of PPSV required after 65 years of age." historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B103&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C103&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D103&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F103&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E103&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="20" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B108&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C108&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D108&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E107&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="C1" dose="1" indication="" label="PCV-13 after PPSV"&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="20" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C128&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C127&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="2" column="1"/&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C111&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D111&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E111&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F111&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 y -4 w 4 d"/&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="20" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C112&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D112&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E112&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="20" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C113&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D113&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E113&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C114&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D114&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E114&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="20" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C115&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D115&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E115&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D116&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E116&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="20" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D117&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C118&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="20" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B121&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C121&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D121&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E121&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F121&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;contraindicate vaccineName="Menactra" afterInterval="4 weeks" age="" reason="" grace="4 weeks"/&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B124&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C124&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D124&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F124&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E124&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B125&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C125&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D125&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F125&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E125&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B126&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C126&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D126&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F126&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E126&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="20" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B131&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C131&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D131&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E130&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="C2" dose="1" indication="" label="PCV-13 after PPSVs"&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="20" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C151&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C150&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="2" column="2"/&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" s="20" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C134&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D134&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E134&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F134&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 y -4 w 4 d"/&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" s="20" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C135&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D135&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E135&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="20" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C136&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D136&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E136&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" s="20" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C137&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D137&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E137&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" s="20" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C138&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D138&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E138&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" s="20" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D139&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E139&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" s="20" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D140&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" s="20" t="str">
         <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C141&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="20" t="str">
         <f>"    &lt;completed seriesName="&amp;CHAR(34)&amp;Schedules!C142&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;completed seriesName="PPSV"/&gt;</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="20" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B145&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C145&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D145&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E145&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F145&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;contraindicate vaccineName="Menactra" afterInterval="4 weeks" age="" reason="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B148&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C148&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D148&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F148&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E148&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B149&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C149&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D149&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F149&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E149&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="19" t="str">
         <f>"&lt;/forecast&gt;"</f>
         <v>&lt;/forecast&gt;</v>
@@ -2725,7 +2724,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0263888888888888" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/schedules/Pneumo65.xlsx
+++ b/schedules/Pneumo65.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="15750" yWindow="90" windowWidth="13035" windowHeight="13260"/>
+    <workbookView xWindow="18075" yWindow="90" windowWidth="20010" windowHeight="18315"/>
   </bookViews>
   <sheets>
     <sheet name="Schedules" sheetId="1" r:id="rId1"/>
     <sheet name="XML" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Excel_BuiltIn_Print_Area_1_1">Schedules!$A$1:$L$152</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Schedules!$A$1:$L$152</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1">Schedules!$A$1:$L$151</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Schedules!$A$1:$L$151</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="73">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -210,9 +210,6 @@
     <t>One dose of PPSV required after 65 years of age.</t>
   </si>
   <si>
-    <t>4 weeks</t>
-  </si>
-  <si>
     <t>Menactra</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
   </si>
   <si>
     <t>Against</t>
-  </si>
-  <si>
-    <t>1 y -4 w 4 d</t>
   </si>
   <si>
     <t>Invalid Same Day Combinations</t>
@@ -555,13 +549,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>85125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -957,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K151"/>
+  <dimension ref="B1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1059,7 +1053,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="11"/>
       <c r="G6" s="10" t="s">
@@ -1074,10 +1068,10 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="31"/>
       <c r="G7" s="10" t="s">
@@ -1092,11 +1086,11 @@
     </row>
     <row r="8" spans="2:11">
       <c r="G8" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="9">
@@ -1105,7 +1099,7 @@
     </row>
     <row r="9" spans="2:11">
       <c r="G9" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
@@ -1139,17 +1133,17 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" s="38"/>
     </row>
@@ -1158,100 +1152,102 @@
         <v>7</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D16" s="31"/>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="31"/>
+    <row r="57" spans="2:10">
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
+      <c r="B58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="14"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>45</v>
+      <c r="B59" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="15">
+        <v>1</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="F59" s="14"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="15">
-        <v>1</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="B60" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="14"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F61" s="14"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="16"/>
-      <c r="C62" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>17</v>
+      <c r="B62" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="F62" s="14"/>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="E63" s="9"/>
       <c r="F63" s="14"/>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="14"/>
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -1259,10 +1255,10 @@
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -1270,137 +1266,134 @@
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>43</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C67" s="18"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="14"/>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C68" s="18"/>
-      <c r="D68" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="14"/>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
       <c r="F69" s="14"/>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
+      <c r="B70" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
     </row>
     <row r="71" spans="2:11">
-      <c r="B71" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
+      <c r="B71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="B73" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="F73" s="14"/>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D72" s="6" t="s">
+      <c r="C74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11">
-      <c r="B73" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11">
-      <c r="B74" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="F74" s="14"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="38"/>
     </row>
     <row r="75" spans="2:11">
-      <c r="B75" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="38"/>
+      <c r="B75" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="41"/>
     </row>
     <row r="76" spans="2:11">
       <c r="B76" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>52</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D76" s="9"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="41"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="45"/>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="9" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -1412,143 +1405,135 @@
       <c r="K77" s="45"/>
     </row>
     <row r="78" spans="2:11">
-      <c r="B78" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="45"/>
+      <c r="B78" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="9">
+        <v>1</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C79" s="9">
         <v>1</v>
       </c>
-      <c r="F79" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="B80" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="9">
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C83" s="15">
-        <v>1</v>
-      </c>
+      <c r="B83" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="16"/>
-      <c r="C85" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>51</v>
+      <c r="B85" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F86" s="32" t="s">
-        <v>50</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C87" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
     </row>
     <row r="88" spans="2:6">
       <c r="B88" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D88" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="E88" s="9"/>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>74</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D89" s="9"/>
       <c r="E89" s="9"/>
     </row>
     <row r="90" spans="2:6">
       <c r="B90" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>43</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C90" s="18"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
     </row>
     <row r="91" spans="2:6">
       <c r="B91" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="9"/>
@@ -1556,280 +1541,276 @@
     </row>
     <row r="92" spans="2:6">
       <c r="B92" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="17" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
+      <c r="B94" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
+      <c r="B95" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>17</v>
+      <c r="B96" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="2:11">
-      <c r="B97" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="F97" s="9"/>
     </row>
     <row r="98" spans="2:11">
-      <c r="B98" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="B98" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
     </row>
     <row r="99" spans="2:11">
-      <c r="B99" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
+      <c r="B99" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" s="42"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="38"/>
     </row>
     <row r="100" spans="2:11">
-      <c r="B100" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F100" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="38"/>
+      <c r="B100" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="40"/>
+      <c r="I100" s="40"/>
+      <c r="J100" s="40"/>
+      <c r="K100" s="41"/>
     </row>
     <row r="101" spans="2:11">
       <c r="B101" s="9" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D101" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="E101" s="9"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="40"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="40"/>
-      <c r="K101" s="41"/>
+      <c r="F101" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="29"/>
     </row>
     <row r="102" spans="2:11">
       <c r="B102" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>61</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D102" s="9"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
-      <c r="K102" s="29"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="45"/>
     </row>
     <row r="103" spans="2:11">
-      <c r="B103" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="44"/>
-      <c r="J103" s="44"/>
-      <c r="K103" s="45"/>
+      <c r="B103" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="104" spans="2:11">
       <c r="B104" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C104" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11">
-      <c r="B105" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C105" s="9">
         <v>1</v>
       </c>
     </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="107" spans="2:11">
-      <c r="B107" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14" t="s">
-        <v>47</v>
+      <c r="B107" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="2:11">
-      <c r="B108" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C108" s="15">
-        <v>1</v>
-      </c>
+      <c r="B108" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
     </row>
     <row r="109" spans="2:11">
-      <c r="B109" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="110" spans="2:11">
-      <c r="B110" s="16"/>
-      <c r="C110" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>51</v>
+      <c r="B110" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F110" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="2:11">
       <c r="B111" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F111" s="32" t="s">
-        <v>69</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
     </row>
     <row r="112" spans="2:11">
       <c r="B112" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
     </row>
     <row r="113" spans="2:11">
       <c r="B113" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D113" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="E113" s="9"/>
     </row>
-    <row r="114" spans="2:11">
+    <row r="114" spans="2:11" ht="12" customHeight="1">
       <c r="B114" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
     </row>
-    <row r="115" spans="2:11" ht="12" customHeight="1">
+    <row r="115" spans="2:11">
       <c r="B115" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>43</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C115" s="18"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
     </row>
     <row r="116" spans="2:11">
       <c r="B116" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C116" s="18"/>
       <c r="D116" s="9"/>
@@ -1837,255 +1818,249 @@
     </row>
     <row r="117" spans="2:11">
       <c r="B117" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C117" s="18"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
     </row>
     <row r="118" spans="2:11">
-      <c r="B118" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
+      <c r="B118" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
     </row>
     <row r="119" spans="2:11">
-      <c r="B119" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C119" s="36"/>
-      <c r="D119" s="36"/>
+      <c r="B119" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="120" spans="2:11">
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D120" s="6" t="s">
+      <c r="C122" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E122" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F120" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11">
-      <c r="B121" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11">
-      <c r="B122" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C122" s="36"/>
-      <c r="D122" s="36"/>
+      <c r="G122" s="42"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="42"/>
+      <c r="K122" s="38"/>
     </row>
     <row r="123" spans="2:11">
-      <c r="B123" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F123" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G123" s="42"/>
-      <c r="H123" s="42"/>
-      <c r="I123" s="42"/>
-      <c r="J123" s="42"/>
-      <c r="K123" s="38"/>
+      <c r="B123" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="40"/>
+      <c r="I123" s="40"/>
+      <c r="J123" s="40"/>
+      <c r="K123" s="41"/>
     </row>
     <row r="124" spans="2:11">
       <c r="B124" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>52</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D124" s="9"/>
       <c r="E124" s="9"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="40"/>
-      <c r="H124" s="40"/>
-      <c r="I124" s="40"/>
-      <c r="J124" s="40"/>
-      <c r="K124" s="41"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="25"/>
     </row>
     <row r="125" spans="2:11">
       <c r="B125" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="24"/>
-      <c r="H125" s="24"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="24"/>
-      <c r="K125" s="25"/>
+        <v>7</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="34"/>
+      <c r="H125" s="34"/>
+      <c r="I125" s="34"/>
+      <c r="J125" s="34"/>
+      <c r="K125" s="35"/>
     </row>
     <row r="126" spans="2:11">
-      <c r="B126" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="34"/>
-      <c r="H126" s="34"/>
-      <c r="I126" s="34"/>
-      <c r="J126" s="34"/>
-      <c r="K126" s="35"/>
+      <c r="B126" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="2:11">
       <c r="B127" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C127" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:11">
-      <c r="B128" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C128" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7">
-      <c r="B130" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C131" s="15">
-        <v>1</v>
-      </c>
+      <c r="B131" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="36"/>
+      <c r="D131" s="36"/>
+      <c r="E131" s="36"/>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132" s="36"/>
-      <c r="D132" s="36"/>
-      <c r="E132" s="36"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="16"/>
-      <c r="C133" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>51</v>
+      <c r="B133" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F133" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="2:7">
       <c r="B134" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F134" s="32" t="s">
-        <v>69</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
     </row>
     <row r="135" spans="2:7">
       <c r="B135" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
     </row>
     <row r="136" spans="2:7">
       <c r="B136" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
     </row>
     <row r="137" spans="2:7">
       <c r="B137" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
     </row>
     <row r="138" spans="2:7">
       <c r="B138" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>43</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C138" s="18"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
     </row>
     <row r="139" spans="2:7">
       <c r="B139" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="9"/>
@@ -2093,108 +2068,110 @@
     </row>
     <row r="140" spans="2:7">
       <c r="B140" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C140" s="18"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
     </row>
     <row r="141" spans="2:7">
       <c r="B141" s="17" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D141" s="14"/>
       <c r="E141" s="14"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C142" s="9" t="s">
+      <c r="B142" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C142" s="36"/>
+      <c r="D142" s="36"/>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+    </row>
+    <row r="145" spans="2:11">
+      <c r="B145" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C145" s="36"/>
+      <c r="D145" s="36"/>
+    </row>
+    <row r="146" spans="2:11">
+      <c r="B146" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F146" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G146" s="42"/>
+      <c r="H146" s="42"/>
+      <c r="I146" s="42"/>
+      <c r="J146" s="42"/>
+      <c r="K146" s="38"/>
+    </row>
+    <row r="147" spans="2:11">
+      <c r="B147" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-    </row>
-    <row r="143" spans="2:7">
-      <c r="B143" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C143" s="36"/>
-      <c r="D143" s="36"/>
-    </row>
-    <row r="144" spans="2:7">
-      <c r="B144" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11">
-      <c r="B145" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11">
-      <c r="B146" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C146" s="36"/>
-      <c r="D146" s="36"/>
-    </row>
-    <row r="147" spans="2:11">
-      <c r="B147" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F147" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G147" s="42"/>
-      <c r="H147" s="42"/>
-      <c r="I147" s="42"/>
-      <c r="J147" s="42"/>
-      <c r="K147" s="38"/>
+      <c r="C147" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="39"/>
+      <c r="G147" s="40"/>
+      <c r="H147" s="40"/>
+      <c r="I147" s="40"/>
+      <c r="J147" s="40"/>
+      <c r="K147" s="41"/>
     </row>
     <row r="148" spans="2:11">
       <c r="B148" s="9" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
@@ -2206,34 +2183,18 @@
       <c r="K148" s="41"/>
     </row>
     <row r="149" spans="2:11">
-      <c r="B149" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="39"/>
-      <c r="G149" s="40"/>
-      <c r="H149" s="40"/>
-      <c r="I149" s="40"/>
-      <c r="J149" s="40"/>
-      <c r="K149" s="41"/>
+      <c r="B149" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="150" spans="2:11">
       <c r="B150" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C150" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11">
-      <c r="B151" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C151" s="9">
         <v>2</v>
       </c>
     </row>
@@ -2241,34 +2202,34 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="29">
     <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F74:K74"/>
     <mergeCell ref="F75:K75"/>
+    <mergeCell ref="F77:K77"/>
     <mergeCell ref="F76:K76"/>
-    <mergeCell ref="F78:K78"/>
-    <mergeCell ref="F77:K77"/>
     <mergeCell ref="G2:K2"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="F149:K149"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B73:D73"/>
     <mergeCell ref="F148:K148"/>
+    <mergeCell ref="B131:E131"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F147:K147"/>
+    <mergeCell ref="F99:K99"/>
     <mergeCell ref="F100:K100"/>
-    <mergeCell ref="F101:K101"/>
+    <mergeCell ref="F122:K122"/>
     <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F147:K147"/>
-    <mergeCell ref="F103:K103"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="F146:K146"/>
+    <mergeCell ref="F102:K102"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B142:D142"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B94:D94"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2278,10 +2239,10 @@
     <oddFooter>&amp;CPrepared by  Nathan Bunker &amp;D&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="18" max="11" man="1"/>
-    <brk id="57" max="16383" man="1"/>
-    <brk id="81" max="11" man="1"/>
-    <brk id="106" max="11" man="1"/>
+    <brk id="17" max="11" man="1"/>
+    <brk id="56" max="16383" man="1"/>
+    <brk id="80" max="11" man="1"/>
+    <brk id="105" max="11" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2289,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A70"/>
+  <dimension ref="A1:A69"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection sqref="A1:A70"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
@@ -2334,389 +2295,383 @@
     <row r="6" spans="1:1">
       <c r="A6" s="19" t="str">
         <f>"  &lt;invalidateSameDay vaccineName="&amp;CHAR(34)&amp;Schedules!B16&amp;CHAR(34)&amp;" ifGiven="&amp;CHAR(34)&amp;Schedules!C16&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;invalidateSameDay vaccineName="PCV13" ifGiven="Menactra"/&gt;</v>
+        <v xml:space="preserve">  &lt;invalidateSameDay vaccineName="PCV13" ifGiven="PPSV"/&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="19" t="str">
-        <f>"  &lt;invalidateSameDay vaccineName="&amp;CHAR(34)&amp;Schedules!B17&amp;CHAR(34)&amp;" ifGiven="&amp;CHAR(34)&amp;Schedules!C17&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;invalidateSameDay vaccineName="PCV13" ifGiven="PPSV"/&gt;</v>
+      <c r="A7" s="20" t="str">
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B59&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C59&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D59&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E58&amp;CHAR(34)&amp;"&gt;"</f>
+        <v xml:space="preserve">  &lt;schedule scheduleName="P1" dose="1" indication="Age 19 Years" label="PCV-13"&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="20" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B60&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C60&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D60&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E59&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="P1" dose="1" indication="Age 19 Years" label="PCV-13"&gt;</v>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C79&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C78&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;pos row="1" column="1"/&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C80&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C79&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;pos row="1" column="1"/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C62&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D62&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E62&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F62&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="65 years" interval="" grace="46 years" intervalGrace=""/&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="20" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C63&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D63&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E63&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F63&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="65 years" interval="" grace="46 years" intervalGrace=""/&gt;</v>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C63&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D63&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E63&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="20" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C64&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D64&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E64&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C64&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D64&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E64&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="20" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C65&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D65&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E65&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C65&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D65&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E65&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="20" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C66&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D66&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E66&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C66&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D66&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E66&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="20" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C67&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D67&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E67&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D67&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E67&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="20" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D68&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E68&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace=""/&gt;</v>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D68&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="20" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D69&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
+        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C69&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="20" t="str">
-        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C70&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
+        <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B72&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C72&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D72&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E72&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F72&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;contraindicate vaccineName="" afterInterval="" age="" reason="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="20" t="str">
-        <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B73&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C73&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D73&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E73&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F73&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;contraindicate vaccineName="Menactra" afterInterval="4 weeks" age="" reason="" grace="4 weeks"/&gt;</v>
+      <c r="A18" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B75&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C75&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D75&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F75&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E75&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B76&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C76&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D76&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F76&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E76&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B77&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C77&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D77&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F77&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E77&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B78&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C78&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D78&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F78&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E78&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
+      <c r="A21" s="20" t="str">
+        <f>"  &lt;/schedule&gt;"</f>
+        <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="20" t="str">
-        <f>"  &lt;/schedule&gt;"</f>
-        <v xml:space="preserve">  &lt;/schedule&gt;</v>
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B82&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C82&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D82&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E81&amp;CHAR(34)&amp;"&gt;"</f>
+        <v xml:space="preserve">  &lt;schedule scheduleName="S1" dose="1" indication="" label="PPSV"&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="20" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B83&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C83&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D83&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E82&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="S1" dose="1" indication="" label="PPSV"&gt;</v>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C104&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C103&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;pos row="1" column="2"/&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C105&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C104&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;pos row="1" column="2"/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C85&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D85&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E85&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F85&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="4 days" intervalGrace="1 year"/&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="20" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C86&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D86&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E86&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F86&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="4 days" intervalGrace="1 year"/&gt;</v>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C86&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D86&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E86&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="20" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C87&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D87&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E87&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C87&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D87&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E87&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="20" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C88&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D88&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E88&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C88&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D88&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E88&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="66 years" interval="2 years" grace=""/&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="20" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C89&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D89&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E89&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="66 years" interval="2 years" grace=""/&gt;</v>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C89&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D89&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E89&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="20" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C90&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D90&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E90&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D90&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E90&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="20" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D91&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E91&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D91&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="20" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D92&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
+        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C92&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;recommend seriesName="PPSV"/&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="20" t="str">
-        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C93&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;recommend seriesName="PPSV"/&gt;</v>
+        <f>"    &lt;completed seriesName="&amp;CHAR(34)&amp;Schedules!C93&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;completed seriesName="PCV13"/&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="20" t="str">
-        <f>"    &lt;completed seriesName="&amp;CHAR(34)&amp;Schedules!C94&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;completed seriesName="PCV13"/&gt;</v>
+        <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B96&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C96&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D96&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E96&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F96&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;contraindicate vaccineName="PPSV" afterInterval="5 years" age="" reason="" grace="5 years"/&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="20" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B97&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C97&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D97&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E97&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F97&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;contraindicate vaccineName="PPSV" afterInterval="5 years" age="" reason="" grace="5 years"/&gt;</v>
+        <v xml:space="preserve">    &lt;contraindicate vaccineName="" afterInterval="" age="" reason="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="20" t="str">
-        <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B98&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C98&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D98&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E98&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F98&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;contraindicate vaccineName="Menactra" afterInterval="4 weeks" age="" reason="" grace="4 weeks"/&gt;</v>
+      <c r="A35" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B100&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C100&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D100&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F100&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E100&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="INVALID" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B101&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C101&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D101&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F101&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E101&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="INVALID" age="" reason="" historyOfVaccineName=""/&gt;</v>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="S1" age="65 years -4 d" reason="One dose of PPSV required after 65 years of age." historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B102&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C102&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D102&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F102&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E102&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="S1" age="65 years -4 d" reason="One dose of PPSV required after 65 years of age." historyOfVaccineName=""/&gt;</v>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B103&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C103&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D103&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F103&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E103&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
+      <c r="A38" s="20" t="str">
+        <f>"  &lt;/schedule&gt;"</f>
+        <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="20" t="str">
-        <f>"  &lt;/schedule&gt;"</f>
-        <v xml:space="preserve">  &lt;/schedule&gt;</v>
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B107&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C107&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D107&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E106&amp;CHAR(34)&amp;"&gt;"</f>
+        <v xml:space="preserve">  &lt;schedule scheduleName="C1" dose="1" indication="" label="PCV-13 after PPSV"&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="20" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B108&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C108&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D108&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E107&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="C1" dose="1" indication="" label="PCV-13 after PPSV"&gt;</v>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C127&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C126&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;pos row="2" column="1"/&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C128&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C127&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;pos row="2" column="1"/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C110&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D110&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E110&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F110&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 year"/&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="20" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C111&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D111&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E111&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F111&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 y -4 w 4 d"/&gt;</v>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C111&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D111&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E111&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="20" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C112&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D112&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E112&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C112&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D112&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E112&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="20" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C113&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D113&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E113&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C113&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D113&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E113&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="66 years" interval="2 years" grace=""/&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="20" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C114&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D114&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E114&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C114&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D114&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E114&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="20" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C115&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D115&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E115&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D115&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E115&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="20" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D116&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E116&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D116&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="20" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D117&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
+        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C117&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="20" t="str">
-        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C118&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
+        <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B120&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C120&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D120&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E120&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F120&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;contraindicate vaccineName="" afterInterval="" age="" reason="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="20" t="str">
-        <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B121&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C121&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D121&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E121&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F121&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;contraindicate vaccineName="Menactra" afterInterval="4 weeks" age="" reason="" grace="4 weeks"/&gt;</v>
+      <c r="A50" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B123&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C123&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D123&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F123&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E123&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B124&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C124&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D124&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F124&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E124&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C1" age="65 years -4 days" reason="" historyOfVaccineName=""/&gt;</v>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B125&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C125&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D125&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F125&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E125&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B126&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C126&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D126&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F126&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E126&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="S1" age="" reason="" historyOfVaccineName=""/&gt;</v>
+      <c r="A53" s="20" t="str">
+        <f>"  &lt;/schedule&gt;"</f>
+        <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="20" t="str">
-        <f>"  &lt;/schedule&gt;"</f>
-        <v xml:space="preserve">  &lt;/schedule&gt;</v>
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B130&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C130&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D130&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E129&amp;CHAR(34)&amp;"&gt;"</f>
+        <v xml:space="preserve">  &lt;schedule scheduleName="C2" dose="1" indication="" label="PCV-13 after PPSVs"&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="20" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B131&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C131&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D131&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E130&amp;CHAR(34)&amp;"&gt;"</f>
-        <v xml:space="preserve">  &lt;schedule scheduleName="C2" dose="1" indication="" label="PCV-13 after PPSVs"&gt;</v>
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C150&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C149&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;pos row="2" column="2"/&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="20" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C151&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C150&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;pos row="2" column="2"/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C133&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D133&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E133&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F133&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 year"/&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="20" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C134&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D134&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E134&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F134&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="65 years" interval="1 year" grace="46 years" intervalGrace="1 y -4 w 4 d"/&gt;</v>
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C134&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D134&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E134&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="20" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C135&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D135&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E135&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C135&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D135&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E135&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="20" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C136&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D136&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E136&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;due age="65 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C136&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D136&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E136&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="20" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C137&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D137&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E137&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;overdue age="66 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C137&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D137&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E137&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="20" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C138&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D138&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E138&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;finished age="120 years" interval="" grace=""/&gt;</v>
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D138&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E138&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="20" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D139&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E139&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;after-invalid interval="" grace=""/&gt;</v>
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D139&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="20" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D140&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
+        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C140&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="20" t="str">
-        <f>"    &lt;recommend seriesName="&amp;CHAR(34)&amp;Schedules!C141&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;recommend seriesName="PCV13"/&gt;</v>
+        <f>"    &lt;completed seriesName="&amp;CHAR(34)&amp;Schedules!C141&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;completed seriesName="PPSV"/&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="20" t="str">
-        <f>"    &lt;completed seriesName="&amp;CHAR(34)&amp;Schedules!C142&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;completed seriesName="PPSV"/&gt;</v>
+        <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B144&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C144&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D144&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E144&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F144&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;contraindicate vaccineName="" afterInterval="" age="" reason="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="20" t="str">
-        <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B145&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C145&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D145&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E145&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F145&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;contraindicate vaccineName="Menactra" afterInterval="4 weeks" age="" reason="" grace=""/&gt;</v>
+      <c r="A66" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B147&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C147&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D147&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F147&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E147&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="21" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B148&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C148&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D148&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F148&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E148&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PPSV" schedule="C2" age="" reason="" historyOfVaccineName=""/&gt;</v>
+        <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="21" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B149&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C149&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D149&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!F149&amp;CHAR(34)&amp;" historyOfVaccineName="&amp;CHAR(34)&amp;Schedules!E149&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="PCV13" schedule="COMPLETE" age="" reason="" historyOfVaccineName=""/&gt;</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="20" t="str">
+      <c r="A68" s="20" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="19" t="str">
+    <row r="69" spans="1:1">
+      <c r="A69" s="19" t="str">
         <f>"&lt;/forecast&gt;"</f>
         <v>&lt;/forecast&gt;</v>
       </c>
